--- a/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_046.xlsx
+++ b/Simulacion_MonteCarlo/escenarios_montecarlo/escenario_046.xlsx
@@ -693,148 +693,148 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>197.6564165290886</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>76.41394626801574</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>36.96006154043778</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>27.48028223446603</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>7.797390051652508</v>
       </c>
       <c r="H2" t="n">
-        <v>31.27234509936896</v>
+        <v>24.64339915973229</v>
       </c>
       <c r="I2" t="n">
-        <v>123.5882608246718</v>
+        <v>58.95005732815574</v>
       </c>
       <c r="J2" t="n">
-        <v>74.55871970006316</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>69.50309591746814</v>
+        <v>36.95182340726528</v>
       </c>
       <c r="L2" t="n">
-        <v>9.863387980561146</v>
+        <v>63.30881939966922</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.671202998780426</v>
       </c>
       <c r="N2" t="n">
-        <v>151.5212251446002</v>
+        <v>26.46239645347345</v>
       </c>
       <c r="O2" t="n">
-        <v>26.51191887257906</v>
+        <v>70.6694282600466</v>
       </c>
       <c r="P2" t="n">
-        <v>62.18298288136465</v>
+        <v>66.22981553479184</v>
       </c>
       <c r="Q2" t="n">
-        <v>61.17272057204536</v>
+        <v>53.2033313235299</v>
       </c>
       <c r="R2" t="n">
-        <v>144.5203113514053</v>
+        <v>98.07210866863851</v>
       </c>
       <c r="S2" t="n">
-        <v>49.61217799400779</v>
+        <v>64.36565671680728</v>
       </c>
       <c r="T2" t="n">
-        <v>45.18488362613753</v>
+        <v>140.2337155887276</v>
       </c>
       <c r="U2" t="n">
-        <v>87.037494739728</v>
+        <v>43.77382002353673</v>
       </c>
       <c r="V2" t="n">
-        <v>29.08384336371129</v>
+        <v>30.62343197819182</v>
       </c>
       <c r="W2" t="n">
-        <v>39.36081664199734</v>
+        <v>39.37825934816848</v>
       </c>
       <c r="X2" t="n">
-        <v>80.71208760864103</v>
+        <v>52.52927078431306</v>
       </c>
       <c r="Y2" t="n">
-        <v>87.21680762962437</v>
+        <v>55.58990202465398</v>
       </c>
       <c r="Z2" t="n">
-        <v>48.22989489561085</v>
+        <v>50.23251681877151</v>
       </c>
       <c r="AA2" t="n">
-        <v>108.8185465705096</v>
+        <v>106.7030016636272</v>
       </c>
       <c r="AB2" t="n">
-        <v>92.85917525389783</v>
+        <v>179.4647073657564</v>
       </c>
       <c r="AC2" t="n">
-        <v>117.309148684282</v>
+        <v>48.41991692951673</v>
       </c>
       <c r="AD2" t="n">
-        <v>178.9441487287693</v>
+        <v>106.8274047290571</v>
       </c>
       <c r="AE2" t="n">
-        <v>148.3668939484211</v>
+        <v>31.08617946692715</v>
       </c>
       <c r="AF2" t="n">
-        <v>138.3912225774412</v>
+        <v>115.504220726557</v>
       </c>
       <c r="AG2" t="n">
-        <v>76.58731604457154</v>
+        <v>81.13756598996731</v>
       </c>
       <c r="AH2" t="n">
-        <v>92.51547632335225</v>
+        <v>135.9955040686342</v>
       </c>
       <c r="AI2" t="n">
-        <v>120.0459495192289</v>
+        <v>85.70336690572972</v>
       </c>
       <c r="AJ2" t="n">
-        <v>27.98757586126684</v>
+        <v>54.27037551309689</v>
       </c>
       <c r="AK2" t="n">
-        <v>66.76470097935228</v>
+        <v>130.3982088807313</v>
       </c>
       <c r="AL2" t="n">
-        <v>66.02431284615616</v>
+        <v>56.6117489111323</v>
       </c>
       <c r="AM2" t="n">
-        <v>32.29082172015896</v>
+        <v>22.57423239500682</v>
       </c>
       <c r="AN2" t="n">
-        <v>20.16377172355303</v>
+        <v>27.17197780655227</v>
       </c>
       <c r="AO2" t="n">
-        <v>11.79782041073429</v>
+        <v>19.48640780730619</v>
       </c>
       <c r="AP2" t="n">
-        <v>22.1084624528083</v>
+        <v>22.53186614924618</v>
       </c>
       <c r="AQ2" t="n">
-        <v>16.50151203959861</v>
+        <v>18.41737431520871</v>
       </c>
       <c r="AR2" t="n">
-        <v>35.60157118647734</v>
+        <v>10.36289111323972</v>
       </c>
       <c r="AS2" t="n">
-        <v>22.21857696498245</v>
+        <v>22.8788210918882</v>
       </c>
       <c r="AT2" t="n">
-        <v>17.04124167677546</v>
+        <v>21.98034323358848</v>
       </c>
       <c r="AU2" t="n">
-        <v>0</v>
+        <v>21.93052869323381</v>
       </c>
       <c r="AV2" t="n">
-        <v>34.06356201228949</v>
+        <v>39.34561270568503</v>
       </c>
       <c r="AW2" t="n">
-        <v>15.38240551495636</v>
+        <v>17.69184000626316</v>
       </c>
       <c r="AX2" t="n">
-        <v>21.48185772111932</v>
+        <v>19.73436034633558</v>
       </c>
     </row>
     <row r="3">
@@ -845,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>2.560747398913647</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -854,139 +854,139 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.651629830659144</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.965619081846672</v>
       </c>
       <c r="H3" t="n">
-        <v>1.229349819447917</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.51060673901908</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>5.941868021711234</v>
+        <v>1.877088633992256</v>
       </c>
       <c r="K3" t="n">
-        <v>2.520052812651121</v>
+        <v>7.085882643943423</v>
       </c>
       <c r="L3" t="n">
-        <v>3.234258407164375</v>
+        <v>6.133497814194949</v>
       </c>
       <c r="M3" t="n">
-        <v>3.755690652454249</v>
+        <v>2.901678111110639</v>
       </c>
       <c r="N3" t="n">
-        <v>0.8445310045673869</v>
+        <v>0.1295396862907494</v>
       </c>
       <c r="O3" t="n">
-        <v>7.807869631287083</v>
+        <v>5.668138069990874</v>
       </c>
       <c r="P3" t="n">
-        <v>1.454439401131718</v>
+        <v>5.954319300950518</v>
       </c>
       <c r="Q3" t="n">
-        <v>4.288809396086696</v>
+        <v>9.655813042570266</v>
       </c>
       <c r="R3" t="n">
-        <v>3.737842996783065</v>
+        <v>4.918742223124343</v>
       </c>
       <c r="S3" t="n">
-        <v>1.385702354172863</v>
+        <v>5.330301864999682</v>
       </c>
       <c r="T3" t="n">
-        <v>2.474433129491818</v>
+        <v>5.238389808692889</v>
       </c>
       <c r="U3" t="n">
-        <v>5.284838701521355</v>
+        <v>5.520038311175158</v>
       </c>
       <c r="V3" t="n">
-        <v>4.772615587470185</v>
+        <v>2.475969016959317</v>
       </c>
       <c r="W3" t="n">
-        <v>3.417068130662712</v>
+        <v>12.15655349570763</v>
       </c>
       <c r="X3" t="n">
-        <v>8.513506927740009</v>
+        <v>0.8717858235487026</v>
       </c>
       <c r="Y3" t="n">
-        <v>6.86854717706311</v>
+        <v>2.398410994494536</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.844980919982802</v>
+        <v>0.1041247206285759</v>
       </c>
       <c r="AA3" t="n">
-        <v>5.284462026099018</v>
+        <v>3.585036382482515</v>
       </c>
       <c r="AB3" t="n">
-        <v>2.103949071224454</v>
+        <v>3.844526991066067</v>
       </c>
       <c r="AC3" t="n">
-        <v>3.901562156997864</v>
+        <v>4.322580183553691</v>
       </c>
       <c r="AD3" t="n">
-        <v>7.808848566987994</v>
+        <v>7.083121517175276</v>
       </c>
       <c r="AE3" t="n">
-        <v>6.111870518358684</v>
+        <v>1.212275712216129</v>
       </c>
       <c r="AF3" t="n">
-        <v>8.545278125393958</v>
+        <v>7.349745758397349</v>
       </c>
       <c r="AG3" t="n">
-        <v>9.556506177235812</v>
+        <v>9.207627780352535</v>
       </c>
       <c r="AH3" t="n">
-        <v>5.269558128791608</v>
+        <v>2.425289448655461</v>
       </c>
       <c r="AI3" t="n">
-        <v>2.483516969735164</v>
+        <v>2.9827291815126</v>
       </c>
       <c r="AJ3" t="n">
-        <v>7.374589702048045</v>
+        <v>6.528595638585065</v>
       </c>
       <c r="AK3" t="n">
-        <v>3.783578007811723</v>
+        <v>5.903430267529387</v>
       </c>
       <c r="AL3" t="n">
-        <v>4.680832379116367</v>
+        <v>6.412834805943793</v>
       </c>
       <c r="AM3" t="n">
-        <v>5.096787202742452</v>
+        <v>4.491783507628167</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.247032207344459</v>
+        <v>3.73548055075246</v>
       </c>
       <c r="AO3" t="n">
-        <v>5.114117100730185</v>
+        <v>5.221909466150204</v>
       </c>
       <c r="AP3" t="n">
-        <v>3.773381258069918</v>
+        <v>3.647944929316255</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4.09612083582263</v>
+        <v>3.458571742856639</v>
       </c>
       <c r="AR3" t="n">
-        <v>6.586207980307823</v>
+        <v>4.745330722138301</v>
       </c>
       <c r="AS3" t="n">
-        <v>6.509790949659611</v>
+        <v>3.36205078041765</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.6487207170659194</v>
+        <v>8.183257759709942</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.544899523716717</v>
+        <v>3.04873652260959</v>
       </c>
       <c r="AV3" t="n">
-        <v>1.166543020403173</v>
+        <v>3.263171776313292</v>
       </c>
       <c r="AW3" t="n">
-        <v>2.822061577162251</v>
+        <v>5.052516161421782</v>
       </c>
       <c r="AX3" t="n">
-        <v>3.490896376398992</v>
+        <v>1.790472590144783</v>
       </c>
     </row>
     <row r="4">
@@ -997,148 +997,148 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>19.54712970619627</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>17.42497308605066</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>4.584561798551272</v>
       </c>
       <c r="F4" t="n">
-        <v>13.54718309650294</v>
+        <v>7.460305329862031</v>
       </c>
       <c r="G4" t="n">
-        <v>28.96760552205598</v>
+        <v>36.95459887522988</v>
       </c>
       <c r="H4" t="n">
-        <v>10.97614115915795</v>
+        <v>183.6331517928921</v>
       </c>
       <c r="I4" t="n">
-        <v>34.33506492812202</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>277.4103814417965</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>28.72100437548632</v>
+        <v>22.74517353024606</v>
       </c>
       <c r="L4" t="n">
-        <v>20.74983840220414</v>
+        <v>24.70377820494743</v>
       </c>
       <c r="M4" t="n">
-        <v>304.6584224793725</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>1.358178659690637</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>198.2874912817783</v>
+        <v>9.987714242603015</v>
       </c>
       <c r="P4" t="n">
-        <v>144.129498408844</v>
+        <v>52.42271995032247</v>
       </c>
       <c r="Q4" t="n">
-        <v>8.60050953043206</v>
+        <v>1.229089442286526</v>
       </c>
       <c r="R4" t="n">
-        <v>63.72364855682717</v>
+        <v>76.12893885481124</v>
       </c>
       <c r="S4" t="n">
-        <v>40.67621860123386</v>
+        <v>51.92381414439812</v>
       </c>
       <c r="T4" t="n">
-        <v>67.15058061944593</v>
+        <v>80.51385663373844</v>
       </c>
       <c r="U4" t="n">
-        <v>37.39338236176904</v>
+        <v>35.40142886770832</v>
       </c>
       <c r="V4" t="n">
-        <v>15.91687156538557</v>
+        <v>60.81221665553001</v>
       </c>
       <c r="W4" t="n">
-        <v>41.0269130568384</v>
+        <v>4.45178053382201</v>
       </c>
       <c r="X4" t="n">
-        <v>142.3753226498914</v>
+        <v>60.27331397708267</v>
       </c>
       <c r="Y4" t="n">
-        <v>40.94660907513124</v>
+        <v>30.54460796259988</v>
       </c>
       <c r="Z4" t="n">
-        <v>74.83956824491635</v>
+        <v>101.0537734543906</v>
       </c>
       <c r="AA4" t="n">
-        <v>38.44741011060809</v>
+        <v>25.94294527875331</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.40688339256971</v>
+        <v>21.15422842149429</v>
       </c>
       <c r="AC4" t="n">
-        <v>57.02947733615203</v>
+        <v>70.97416329959917</v>
       </c>
       <c r="AD4" t="n">
-        <v>84.18726279472614</v>
+        <v>65.2965385886346</v>
       </c>
       <c r="AE4" t="n">
-        <v>31.25665458886232</v>
+        <v>47.04223896347354</v>
       </c>
       <c r="AF4" t="n">
-        <v>54.50282466607462</v>
+        <v>59.49495074097377</v>
       </c>
       <c r="AG4" t="n">
-        <v>54.47310466803322</v>
+        <v>75.01267300802581</v>
       </c>
       <c r="AH4" t="n">
-        <v>68.49270994232103</v>
+        <v>71.70260290452373</v>
       </c>
       <c r="AI4" t="n">
-        <v>77.04075053974567</v>
+        <v>42.76435573340173</v>
       </c>
       <c r="AJ4" t="n">
-        <v>101.0654033854491</v>
+        <v>54.38668358773945</v>
       </c>
       <c r="AK4" t="n">
-        <v>78.31433415641716</v>
+        <v>93.50134120018075</v>
       </c>
       <c r="AL4" t="n">
-        <v>56.27267870955128</v>
+        <v>95.96590904186066</v>
       </c>
       <c r="AM4" t="n">
-        <v>42.14776869412164</v>
+        <v>13.53350765978644</v>
       </c>
       <c r="AN4" t="n">
-        <v>45.4028972096352</v>
+        <v>14.9770399543037</v>
       </c>
       <c r="AO4" t="n">
-        <v>32.18313502165211</v>
+        <v>8.331717387746174</v>
       </c>
       <c r="AP4" t="n">
-        <v>14.85675413451129</v>
+        <v>15.95758897764748</v>
       </c>
       <c r="AQ4" t="n">
-        <v>9.908288178498148</v>
+        <v>6.198901256150256</v>
       </c>
       <c r="AR4" t="n">
-        <v>16.02877044182733</v>
+        <v>6.22125304247786</v>
       </c>
       <c r="AS4" t="n">
-        <v>7.375061893146743</v>
+        <v>17.41893058904206</v>
       </c>
       <c r="AT4" t="n">
-        <v>24.66067940031081</v>
+        <v>17.79255596473224</v>
       </c>
       <c r="AU4" t="n">
-        <v>14.83485384797731</v>
+        <v>19.70195487383447</v>
       </c>
       <c r="AV4" t="n">
-        <v>18.68541753716948</v>
+        <v>6.568791196311238</v>
       </c>
       <c r="AW4" t="n">
-        <v>18.8479031238097</v>
+        <v>12.85396252257364</v>
       </c>
       <c r="AX4" t="n">
-        <v>4.309999693529252</v>
+        <v>6.40884634671799</v>
       </c>
     </row>
     <row r="5">
@@ -1149,148 +1149,148 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>31.37148139586829</v>
+        <v>61.64328011965499</v>
       </c>
       <c r="D5" t="n">
-        <v>2.660200574058832</v>
+        <v>98.43376239133201</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>17.76740249709115</v>
       </c>
       <c r="F5" t="n">
-        <v>6.524122805990853</v>
+        <v>14.9597891875858</v>
       </c>
       <c r="G5" t="n">
-        <v>6.091483497116728</v>
+        <v>17.53092898954815</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>89.7304777014642</v>
       </c>
       <c r="I5" t="n">
-        <v>7.043178761119064</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>119.4416768651639</v>
+        <v>28.44385071401472</v>
       </c>
       <c r="K5" t="n">
-        <v>92.68454211860967</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>63.54696431152254</v>
       </c>
       <c r="M5" t="n">
-        <v>62.32429011330993</v>
+        <v>62.02583174377163</v>
       </c>
       <c r="N5" t="n">
-        <v>14.74463415347834</v>
+        <v>29.37224622951836</v>
       </c>
       <c r="O5" t="n">
-        <v>41.15294728203074</v>
+        <v>52.49554805572259</v>
       </c>
       <c r="P5" t="n">
-        <v>106.481038597998</v>
+        <v>39.81718735981748</v>
       </c>
       <c r="Q5" t="n">
-        <v>40.73052610352516</v>
+        <v>58.57229446116388</v>
       </c>
       <c r="R5" t="n">
-        <v>64.83428841347715</v>
+        <v>41.56492694161286</v>
       </c>
       <c r="S5" t="n">
-        <v>32.14986342609433</v>
+        <v>91.1481163190505</v>
       </c>
       <c r="T5" t="n">
-        <v>63.48974229198152</v>
+        <v>15.61898826120047</v>
       </c>
       <c r="U5" t="n">
-        <v>92.23790873572223</v>
+        <v>80.82223449939713</v>
       </c>
       <c r="V5" t="n">
-        <v>58.42731756702592</v>
+        <v>33.28581414685618</v>
       </c>
       <c r="W5" t="n">
-        <v>22.27759363313441</v>
+        <v>87.31654821135136</v>
       </c>
       <c r="X5" t="n">
-        <v>28.69056096990511</v>
+        <v>72.71152518441524</v>
       </c>
       <c r="Y5" t="n">
-        <v>52.2939596757431</v>
+        <v>79.05172605675284</v>
       </c>
       <c r="Z5" t="n">
-        <v>33.06757646638456</v>
+        <v>21.44991455546987</v>
       </c>
       <c r="AA5" t="n">
-        <v>97.2466777581481</v>
+        <v>47.64316618160114</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>19.70500523149926</v>
       </c>
       <c r="AC5" t="n">
-        <v>15.47479977404382</v>
+        <v>4.859842632624744</v>
       </c>
       <c r="AD5" t="n">
-        <v>44.37450517529183</v>
+        <v>56.76788899406412</v>
       </c>
       <c r="AE5" t="n">
-        <v>88.39094824914203</v>
+        <v>48.69935212139395</v>
       </c>
       <c r="AF5" t="n">
-        <v>33.91032036098123</v>
+        <v>13.05490685086091</v>
       </c>
       <c r="AG5" t="n">
-        <v>32.51713434828808</v>
+        <v>31.06985359642436</v>
       </c>
       <c r="AH5" t="n">
-        <v>44.42475599362936</v>
+        <v>68.50211859217424</v>
       </c>
       <c r="AI5" t="n">
-        <v>22.21523681670946</v>
+        <v>85.85358929016139</v>
       </c>
       <c r="AJ5" t="n">
-        <v>44.46340521015478</v>
+        <v>61.64483118937365</v>
       </c>
       <c r="AK5" t="n">
-        <v>78.81234361977712</v>
+        <v>24.7503902633923</v>
       </c>
       <c r="AL5" t="n">
-        <v>38.05672158410158</v>
+        <v>34.30907226009346</v>
       </c>
       <c r="AM5" t="n">
-        <v>30.7181111658872</v>
+        <v>26.6695370030438</v>
       </c>
       <c r="AN5" t="n">
-        <v>64.35304160317033</v>
+        <v>26.62263136766329</v>
       </c>
       <c r="AO5" t="n">
-        <v>16.62604650755731</v>
+        <v>1.26504679644594</v>
       </c>
       <c r="AP5" t="n">
-        <v>19.55960966019286</v>
+        <v>22.67918137637371</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29.33442157580846</v>
+        <v>7.256071900218162</v>
       </c>
       <c r="AR5" t="n">
-        <v>37.94571152990347</v>
+        <v>23.17811382387749</v>
       </c>
       <c r="AS5" t="n">
-        <v>16.59510521543048</v>
+        <v>26.50927177988356</v>
       </c>
       <c r="AT5" t="n">
-        <v>11.38608966499004</v>
+        <v>20.99146643817649</v>
       </c>
       <c r="AU5" t="n">
-        <v>24.8753433793798</v>
+        <v>5.529426265506046</v>
       </c>
       <c r="AV5" t="n">
-        <v>12.04645785842234</v>
+        <v>16.34511706669271</v>
       </c>
       <c r="AW5" t="n">
-        <v>30.01665390145685</v>
+        <v>28.9132751120794</v>
       </c>
       <c r="AX5" t="n">
-        <v>13.054427570507</v>
+        <v>21.61993970408201</v>
       </c>
     </row>
     <row r="6">
@@ -1301,148 +1301,148 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>6.251115604383719</v>
+        <v>16.75634019647735</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>16.64622820040522</v>
       </c>
       <c r="E6" t="n">
-        <v>3.824925999244882</v>
+        <v>29.41961878081627</v>
       </c>
       <c r="F6" t="n">
-        <v>2.898098062535504</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>3.798089856027045</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1346696501025519</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>102.6005152347764</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>22.27192894494852</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>23.78972251310789</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>106.4736769511897</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>33.45026389250906</v>
+        <v>7.518178889957965</v>
       </c>
       <c r="O6" t="n">
-        <v>18.31422411386774</v>
+        <v>32.62940637184781</v>
       </c>
       <c r="P6" t="n">
-        <v>8.040988426396002</v>
+        <v>14.10805698967127</v>
       </c>
       <c r="Q6" t="n">
-        <v>44.35713750029954</v>
+        <v>16.76398135715411</v>
       </c>
       <c r="R6" t="n">
-        <v>27.50546370535041</v>
+        <v>11.46968212932802</v>
       </c>
       <c r="S6" t="n">
-        <v>45.00695183890111</v>
+        <v>38.52855254158414</v>
       </c>
       <c r="T6" t="n">
-        <v>13.93165883876956</v>
+        <v>25.87131362584403</v>
       </c>
       <c r="U6" t="n">
-        <v>21.55111728539795</v>
+        <v>76.7591467071432</v>
       </c>
       <c r="V6" t="n">
-        <v>19.00566467285076</v>
+        <v>40.93064046529876</v>
       </c>
       <c r="W6" t="n">
-        <v>25.82632710930492</v>
+        <v>15.20506013050065</v>
       </c>
       <c r="X6" t="n">
-        <v>29.88956885911179</v>
+        <v>13.1541810882805</v>
       </c>
       <c r="Y6" t="n">
-        <v>10.89582951946723</v>
+        <v>10.95955474839062</v>
       </c>
       <c r="Z6" t="n">
-        <v>12.61021793535994</v>
+        <v>20.19643480934989</v>
       </c>
       <c r="AA6" t="n">
-        <v>4.507070824966556</v>
+        <v>6.265666519733171</v>
       </c>
       <c r="AB6" t="n">
-        <v>18.67325114851076</v>
+        <v>27.14830408524239</v>
       </c>
       <c r="AC6" t="n">
-        <v>15.09257992442489</v>
+        <v>10.00481894319886</v>
       </c>
       <c r="AD6" t="n">
-        <v>9.331586928141821</v>
+        <v>6.242354829033707</v>
       </c>
       <c r="AE6" t="n">
-        <v>24.85109746537236</v>
+        <v>16.03846728617315</v>
       </c>
       <c r="AF6" t="n">
-        <v>18.74394647917925</v>
+        <v>21.24891806978678</v>
       </c>
       <c r="AG6" t="n">
-        <v>9.633404824317211</v>
+        <v>7.058288203476419</v>
       </c>
       <c r="AH6" t="n">
-        <v>10.04199484715551</v>
+        <v>10.696115157627</v>
       </c>
       <c r="AI6" t="n">
-        <v>9.811228448771613</v>
+        <v>20.44412364301751</v>
       </c>
       <c r="AJ6" t="n">
-        <v>3.716059241865379</v>
+        <v>30.07469151159399</v>
       </c>
       <c r="AK6" t="n">
-        <v>3.77037199128557</v>
+        <v>15.97749190812684</v>
       </c>
       <c r="AL6" t="n">
-        <v>10.40693481128812</v>
+        <v>10.81812873926115</v>
       </c>
       <c r="AM6" t="n">
-        <v>3.997331717477618</v>
+        <v>3.820141025037865</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.825771354853011</v>
+        <v>2.064034989986296</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.136086061435066</v>
+        <v>0.7628390139015591</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.427771480058506</v>
+        <v>4.39539951686832</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1.203648888136398</v>
+        <v>0.8260489136229945</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>1.227598472545808</v>
       </c>
       <c r="AS6" t="n">
-        <v>3.28496238749972</v>
+        <v>3.143468813096416</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.936042446358788</v>
+        <v>3.452798255709225</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>1.31277232979424</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.5753537769295965</v>
+        <v>1.183118538839897</v>
       </c>
       <c r="AW6" t="n">
-        <v>1.29282189637591</v>
+        <v>2.807565155585592</v>
       </c>
       <c r="AX6" t="n">
-        <v>3.809942889912544</v>
+        <v>1.6625001834205</v>
       </c>
     </row>
     <row r="7">
@@ -1453,148 +1453,148 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>7.697235690267425</v>
       </c>
       <c r="D7" t="n">
-        <v>4.251809759047975</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>3.795858222548861</v>
       </c>
       <c r="F7" t="n">
-        <v>4.197021324392864</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>13.91729241663642</v>
       </c>
       <c r="H7" t="n">
-        <v>3.662446146745229</v>
+        <v>22.73442589005236</v>
       </c>
       <c r="I7" t="n">
-        <v>13.76563146974602</v>
+        <v>0.6954913139088998</v>
       </c>
       <c r="J7" t="n">
-        <v>39.05212237222501</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>120.1481887620892</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>10.3818931483775</v>
+        <v>62.29291934655913</v>
       </c>
       <c r="M7" t="n">
-        <v>50.40456748644383</v>
+        <v>43.30815755745068</v>
       </c>
       <c r="N7" t="n">
-        <v>43.69269409162505</v>
+        <v>37.42823114314639</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>4.942491871989994</v>
       </c>
       <c r="P7" t="n">
-        <v>102.4200694532068</v>
+        <v>83.89937876520743</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.52566846092902</v>
+        <v>25.92668653393971</v>
       </c>
       <c r="R7" t="n">
-        <v>50.91244674298068</v>
+        <v>33.35329952223351</v>
       </c>
       <c r="S7" t="n">
-        <v>6.398508539782882</v>
+        <v>20.98528416628925</v>
       </c>
       <c r="T7" t="n">
-        <v>16.77339978219734</v>
+        <v>24.36747737283527</v>
       </c>
       <c r="U7" t="n">
-        <v>43.27752103397695</v>
+        <v>34.0127137633806</v>
       </c>
       <c r="V7" t="n">
-        <v>54.95134705592597</v>
+        <v>47.27701443417662</v>
       </c>
       <c r="W7" t="n">
-        <v>23.66882875804869</v>
+        <v>50.92726601029223</v>
       </c>
       <c r="X7" t="n">
-        <v>14.85103477908724</v>
+        <v>22.62734677427117</v>
       </c>
       <c r="Y7" t="n">
-        <v>116.8184307300796</v>
+        <v>17.85345837279798</v>
       </c>
       <c r="Z7" t="n">
-        <v>4.000373033157723</v>
+        <v>1.432690076644614</v>
       </c>
       <c r="AA7" t="n">
-        <v>3.300995609906282</v>
+        <v>8.545158843878392</v>
       </c>
       <c r="AB7" t="n">
-        <v>5.244357260361148</v>
+        <v>4.224930161771518</v>
       </c>
       <c r="AC7" t="n">
-        <v>16.92094714534327</v>
+        <v>2.841659348158369</v>
       </c>
       <c r="AD7" t="n">
-        <v>21.36748661897792</v>
+        <v>7.164899894234992</v>
       </c>
       <c r="AE7" t="n">
-        <v>0</v>
+        <v>8.553474064323003</v>
       </c>
       <c r="AF7" t="n">
-        <v>17.49062826498342</v>
+        <v>2.489163709776462</v>
       </c>
       <c r="AG7" t="n">
-        <v>12.24498641021306</v>
+        <v>8.064700528720289</v>
       </c>
       <c r="AH7" t="n">
-        <v>1.103197223042891</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>1.708408825759869</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3.734856504480582</v>
+        <v>24.34756916369464</v>
       </c>
       <c r="AK7" t="n">
-        <v>24.76369863841564</v>
+        <v>10.81981918294982</v>
       </c>
       <c r="AL7" t="n">
-        <v>10.62802544367358</v>
+        <v>11.68763043329827</v>
       </c>
       <c r="AM7" t="n">
-        <v>6.850142234990353</v>
+        <v>3.887944619492932</v>
       </c>
       <c r="AN7" t="n">
-        <v>9.806069520283883</v>
+        <v>8.718872859368428</v>
       </c>
       <c r="AO7" t="n">
-        <v>6.906236517016524</v>
+        <v>3.004865639583175</v>
       </c>
       <c r="AP7" t="n">
-        <v>5.056082385320257</v>
+        <v>1.051992665288819</v>
       </c>
       <c r="AQ7" t="n">
-        <v>17.67765146200426</v>
+        <v>12.23363500329253</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>60.57350907987264</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.391757369315682</v>
+        <v>4.462895350612892</v>
       </c>
       <c r="AT7" t="n">
-        <v>11.40331666501635</v>
+        <v>1.971929319312804</v>
       </c>
       <c r="AU7" t="n">
-        <v>3.911850199561739</v>
+        <v>7.006276003330484</v>
       </c>
       <c r="AV7" t="n">
-        <v>10.31223754528375</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>10.10291530104801</v>
+        <v>11.53614802288948</v>
       </c>
       <c r="AX7" t="n">
-        <v>6.92364992712882</v>
+        <v>7.029604089888922</v>
       </c>
     </row>
     <row r="8">
@@ -1608,145 +1608,145 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>69.39407266620063</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>25.00008119955724</v>
+        <v>38.82347638740793</v>
       </c>
       <c r="F8" t="n">
-        <v>11.16545357985149</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>14.18246722254628</v>
+        <v>40.32858556103566</v>
       </c>
       <c r="H8" t="n">
-        <v>85.12720018927436</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>132.7842491573183</v>
+        <v>168.0086167641156</v>
       </c>
       <c r="J8" t="n">
-        <v>81.89093527226083</v>
+        <v>34.9380241454476</v>
       </c>
       <c r="K8" t="n">
-        <v>74.7619142528952</v>
+        <v>72.99321425898587</v>
       </c>
       <c r="L8" t="n">
-        <v>19.46562572294962</v>
+        <v>5.597065710761472</v>
       </c>
       <c r="M8" t="n">
-        <v>68.97790727759219</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>96.80050684294881</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>109.5529827493563</v>
+        <v>50.99816332605575</v>
       </c>
       <c r="P8" t="n">
-        <v>71.2727210707439</v>
+        <v>55.32946124339764</v>
       </c>
       <c r="Q8" t="n">
-        <v>38.64226261838409</v>
+        <v>57.14366116742003</v>
       </c>
       <c r="R8" t="n">
-        <v>166.2930685297916</v>
+        <v>48.44629060257451</v>
       </c>
       <c r="S8" t="n">
-        <v>51.28741780609369</v>
+        <v>33.72711802849585</v>
       </c>
       <c r="T8" t="n">
-        <v>23.3303531516281</v>
+        <v>67.63125685602013</v>
       </c>
       <c r="U8" t="n">
-        <v>39.34101200664687</v>
+        <v>83.92495800852343</v>
       </c>
       <c r="V8" t="n">
-        <v>59.29227843944381</v>
+        <v>18.35220426071716</v>
       </c>
       <c r="W8" t="n">
-        <v>91.86414738552652</v>
+        <v>116.8904101592593</v>
       </c>
       <c r="X8" t="n">
-        <v>58.40855016233229</v>
+        <v>39.88797677877754</v>
       </c>
       <c r="Y8" t="n">
-        <v>22.48036383332744</v>
+        <v>79.48162411060363</v>
       </c>
       <c r="Z8" t="n">
-        <v>74.07735949324297</v>
+        <v>29.12361551035352</v>
       </c>
       <c r="AA8" t="n">
-        <v>68.39527165575845</v>
+        <v>113.8006403815451</v>
       </c>
       <c r="AB8" t="n">
-        <v>125.9790009494278</v>
+        <v>131.5909058433633</v>
       </c>
       <c r="AC8" t="n">
-        <v>80.79996131224019</v>
+        <v>70.9669977071128</v>
       </c>
       <c r="AD8" t="n">
-        <v>147.3325442863542</v>
+        <v>28.39207541956506</v>
       </c>
       <c r="AE8" t="n">
-        <v>128.8669852656639</v>
+        <v>42.13450468281795</v>
       </c>
       <c r="AF8" t="n">
-        <v>90.57590424759324</v>
+        <v>77.66713067302253</v>
       </c>
       <c r="AG8" t="n">
-        <v>141.4717562501318</v>
+        <v>101.7416471922863</v>
       </c>
       <c r="AH8" t="n">
-        <v>83.47220115124431</v>
+        <v>128.757788198755</v>
       </c>
       <c r="AI8" t="n">
-        <v>32.25205584393822</v>
+        <v>96.46783603515384</v>
       </c>
       <c r="AJ8" t="n">
-        <v>84.7231359848725</v>
+        <v>34.98596699500668</v>
       </c>
       <c r="AK8" t="n">
-        <v>65.85355187110329</v>
+        <v>27.31160149646223</v>
       </c>
       <c r="AL8" t="n">
-        <v>50.35682330460831</v>
+        <v>112.4927311255449</v>
       </c>
       <c r="AM8" t="n">
-        <v>25.08617118951916</v>
+        <v>6.163504770298061</v>
       </c>
       <c r="AN8" t="n">
-        <v>36.83822599414425</v>
+        <v>24.77926314497152</v>
       </c>
       <c r="AO8" t="n">
-        <v>40.89667648811596</v>
+        <v>16.80382609364742</v>
       </c>
       <c r="AP8" t="n">
-        <v>37.26518757160704</v>
+        <v>7.359282947327298</v>
       </c>
       <c r="AQ8" t="n">
-        <v>19.62587898786778</v>
+        <v>7.907640344978862</v>
       </c>
       <c r="AR8" t="n">
-        <v>32.98474116207878</v>
+        <v>26.74645346409464</v>
       </c>
       <c r="AS8" t="n">
-        <v>31.17870159081016</v>
+        <v>24.95644837557223</v>
       </c>
       <c r="AT8" t="n">
-        <v>26.79782585070211</v>
+        <v>33.79728938771481</v>
       </c>
       <c r="AU8" t="n">
-        <v>22.5120407664165</v>
+        <v>18.25442561187356</v>
       </c>
       <c r="AV8" t="n">
-        <v>14.87370214178024</v>
+        <v>12.89873889063625</v>
       </c>
       <c r="AW8" t="n">
-        <v>9.25564155447587</v>
+        <v>21.18766809106507</v>
       </c>
       <c r="AX8" t="n">
-        <v>20.99425212594215</v>
+        <v>13.8897576902771</v>
       </c>
     </row>
     <row r="9">
@@ -1757,148 +1757,148 @@
         <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1.19948734412186</v>
       </c>
       <c r="D9" t="n">
-        <v>3.118387179031624</v>
+        <v>3.605605705972509</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.575844413989528</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.544220657255811</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1.653470446374404</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5.999660852147035</v>
+        <v>2.607255369406094</v>
       </c>
       <c r="J9" t="n">
-        <v>10.34174214931699</v>
+        <v>3.306011112329036</v>
       </c>
       <c r="K9" t="n">
-        <v>4.534929790904922</v>
+        <v>1.957039204067625</v>
       </c>
       <c r="L9" t="n">
-        <v>12.21856879407006</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>6.603109961699681</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3.944030693641951</v>
+        <v>4.615426698695338</v>
       </c>
       <c r="O9" t="n">
-        <v>5.410506152089464</v>
+        <v>6.053380644041734</v>
       </c>
       <c r="P9" t="n">
-        <v>3.189876426836781</v>
+        <v>3.225548496928853</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.070412710477465</v>
+        <v>1.29792803802237</v>
       </c>
       <c r="R9" t="n">
-        <v>1.858105801987689</v>
+        <v>3.527801318292974</v>
       </c>
       <c r="S9" t="n">
-        <v>3.64680713365707</v>
+        <v>3.225501238630391</v>
       </c>
       <c r="T9" t="n">
-        <v>1.473625267026524</v>
+        <v>1.92875328772044</v>
       </c>
       <c r="U9" t="n">
-        <v>2.100035507183774</v>
+        <v>3.615609272562375</v>
       </c>
       <c r="V9" t="n">
-        <v>4.346887063377878</v>
+        <v>11.37073831168872</v>
       </c>
       <c r="W9" t="n">
-        <v>5.509690356852413</v>
+        <v>9.603572668920933</v>
       </c>
       <c r="X9" t="n">
-        <v>7.145995409553131</v>
+        <v>3.764591167159116</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.72979928977767</v>
+        <v>1.856345815630188</v>
       </c>
       <c r="Z9" t="n">
-        <v>6.926577711848048</v>
+        <v>3.482630913526646</v>
       </c>
       <c r="AA9" t="n">
-        <v>6.273810829037953</v>
+        <v>3.94282747232272</v>
       </c>
       <c r="AB9" t="n">
-        <v>4.637063805086677</v>
+        <v>3.365183520380304</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.999080935122208</v>
+        <v>2.505272226072256</v>
       </c>
       <c r="AD9" t="n">
-        <v>8.581426923830303</v>
+        <v>6.556732841051944</v>
       </c>
       <c r="AE9" t="n">
-        <v>3.339357050385428</v>
+        <v>5.574400428206399</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.136505679120802</v>
+        <v>2.541417627574076</v>
       </c>
       <c r="AG9" t="n">
-        <v>5.88201139609865</v>
+        <v>7.261377429064186</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.444666877907324</v>
+        <v>4.140191801322636</v>
       </c>
       <c r="AI9" t="n">
-        <v>6.005258043746036</v>
+        <v>9.928668935452498</v>
       </c>
       <c r="AJ9" t="n">
-        <v>5.147910245384107</v>
+        <v>5.781802931481381</v>
       </c>
       <c r="AK9" t="n">
-        <v>3.822328873334892</v>
+        <v>6.761793825052308</v>
       </c>
       <c r="AL9" t="n">
-        <v>2.724741368115462</v>
+        <v>5.929714131391671</v>
       </c>
       <c r="AM9" t="n">
-        <v>7.856932158257054</v>
+        <v>2.935769781723899</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.125768304173689</v>
+        <v>2.28137773938841</v>
       </c>
       <c r="AO9" t="n">
-        <v>2.285769185720377</v>
+        <v>0.9384691622758532</v>
       </c>
       <c r="AP9" t="n">
-        <v>3.035414665562631</v>
+        <v>1.600256387568068</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3.430415320480792</v>
+        <v>2.717264279174218</v>
       </c>
       <c r="AR9" t="n">
-        <v>3.591421741572234</v>
+        <v>2.418153742969667</v>
       </c>
       <c r="AS9" t="n">
-        <v>3.936653283410055</v>
+        <v>4.297270238863041</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.898880980602782</v>
+        <v>3.92651119743474</v>
       </c>
       <c r="AU9" t="n">
-        <v>1.358198910220024</v>
+        <v>3.527160221931042</v>
       </c>
       <c r="AV9" t="n">
-        <v>2.232496532538129</v>
+        <v>6.481715788445196</v>
       </c>
       <c r="AW9" t="n">
-        <v>2.770630654770102</v>
+        <v>3.873547610390302</v>
       </c>
       <c r="AX9" t="n">
-        <v>2.715491672488797</v>
+        <v>2.977352810333245</v>
       </c>
     </row>
     <row r="10">
@@ -1909,148 +1909,148 @@
         <v>2</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>72.10504108512133</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>9.968155320361177</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>37.78011847493804</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>4.369992130998781</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>34.97074386636178</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01650938333799346</v>
+        <v>98.89686545065831</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>41.65993024415506</v>
       </c>
       <c r="K10" t="n">
-        <v>134.4979938989507</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>83.99998804300829</v>
+        <v>10.16315646048492</v>
       </c>
       <c r="M10" t="n">
-        <v>92.3615656863808</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>85.15994587613594</v>
+        <v>33.68632915060259</v>
       </c>
       <c r="O10" t="n">
-        <v>35.56671107634692</v>
+        <v>62.75570553722048</v>
       </c>
       <c r="P10" t="n">
-        <v>108.6731404549016</v>
+        <v>64.20980090960862</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.3816910990322</v>
+        <v>123.0530745467959</v>
       </c>
       <c r="R10" t="n">
-        <v>86.86291735373266</v>
+        <v>22.00215115362668</v>
       </c>
       <c r="S10" t="n">
-        <v>12.53019034428888</v>
+        <v>99.30798932066523</v>
       </c>
       <c r="T10" t="n">
-        <v>138.9301204747217</v>
+        <v>26.37646575444184</v>
       </c>
       <c r="U10" t="n">
-        <v>91.38114870254242</v>
+        <v>60.22182896568445</v>
       </c>
       <c r="V10" t="n">
-        <v>4.217962541399082</v>
+        <v>45.55075881123976</v>
       </c>
       <c r="W10" t="n">
-        <v>103.7136957353705</v>
+        <v>33.31136151822481</v>
       </c>
       <c r="X10" t="n">
-        <v>88.1054705396035</v>
+        <v>53.46510693664848</v>
       </c>
       <c r="Y10" t="n">
-        <v>77.70641007932269</v>
+        <v>56.21478966955912</v>
       </c>
       <c r="Z10" t="n">
-        <v>64.94366546914436</v>
+        <v>13.10977143789784</v>
       </c>
       <c r="AA10" t="n">
-        <v>63.81752115173884</v>
+        <v>106.0642747963214</v>
       </c>
       <c r="AB10" t="n">
-        <v>105.4571021585958</v>
+        <v>117.5566815898407</v>
       </c>
       <c r="AC10" t="n">
-        <v>94.01162763666692</v>
+        <v>75.83709325190438</v>
       </c>
       <c r="AD10" t="n">
-        <v>44.28146145543221</v>
+        <v>123.1120210356386</v>
       </c>
       <c r="AE10" t="n">
-        <v>33.45954346654398</v>
+        <v>77.38572834536417</v>
       </c>
       <c r="AF10" t="n">
-        <v>34.50788681266467</v>
+        <v>34.30163079269714</v>
       </c>
       <c r="AG10" t="n">
-        <v>63.22651454372187</v>
+        <v>67.29517018997146</v>
       </c>
       <c r="AH10" t="n">
-        <v>105.5065451651001</v>
+        <v>98.90320106424839</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>17.63273282773023</v>
       </c>
       <c r="AJ10" t="n">
-        <v>45.15242186101991</v>
+        <v>62.25700211897361</v>
       </c>
       <c r="AK10" t="n">
-        <v>30.39738171617248</v>
+        <v>95.9121532061603</v>
       </c>
       <c r="AL10" t="n">
-        <v>53.24718765928942</v>
+        <v>81.52913609259063</v>
       </c>
       <c r="AM10" t="n">
-        <v>26.19472458836102</v>
+        <v>35.96985503941729</v>
       </c>
       <c r="AN10" t="n">
-        <v>20.74148686735697</v>
+        <v>7.8850316897394</v>
       </c>
       <c r="AO10" t="n">
-        <v>38.86198684476803</v>
+        <v>11.36824602186151</v>
       </c>
       <c r="AP10" t="n">
-        <v>62.82094544821984</v>
+        <v>13.31216954719144</v>
       </c>
       <c r="AQ10" t="n">
-        <v>22.71956701356664</v>
+        <v>5.594956435252559</v>
       </c>
       <c r="AR10" t="n">
-        <v>28.64886722300783</v>
+        <v>26.30406691103148</v>
       </c>
       <c r="AS10" t="n">
-        <v>12.94638999568872</v>
+        <v>7.89586142960793</v>
       </c>
       <c r="AT10" t="n">
-        <v>17.05602448611406</v>
+        <v>21.33952515465529</v>
       </c>
       <c r="AU10" t="n">
-        <v>13.46991540132832</v>
+        <v>21.56270540687505</v>
       </c>
       <c r="AV10" t="n">
-        <v>11.19577722553912</v>
+        <v>23.88181334351679</v>
       </c>
       <c r="AW10" t="n">
-        <v>2.360270826814067</v>
+        <v>24.33777392639092</v>
       </c>
       <c r="AX10" t="n">
-        <v>10.81807407063583</v>
+        <v>27.28142279353113</v>
       </c>
     </row>
     <row r="11">
@@ -2061,148 +2061,148 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>57.40344265202684</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>36.09624755822521</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>35.15528510575724</v>
       </c>
       <c r="F11" t="n">
-        <v>13.16293220056016</v>
+        <v>7.669038048315445</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>16.00560611613342</v>
       </c>
       <c r="H11" t="n">
-        <v>20.72831288305391</v>
+        <v>3.258636610399971</v>
       </c>
       <c r="I11" t="n">
-        <v>102.7647661534799</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>22.80461384704071</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>73.03453705411665</v>
+        <v>29.01718542018709</v>
       </c>
       <c r="L11" t="n">
-        <v>75.42552464648605</v>
+        <v>60.89268426095536</v>
       </c>
       <c r="M11" t="n">
-        <v>80.49935301390073</v>
+        <v>29.85169024544595</v>
       </c>
       <c r="N11" t="n">
-        <v>309.0058189114454</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>88.96689248362433</v>
+        <v>32.64555656482557</v>
       </c>
       <c r="P11" t="n">
-        <v>42.10732543050617</v>
+        <v>39.47065376211692</v>
       </c>
       <c r="Q11" t="n">
-        <v>11.71905687907968</v>
+        <v>91.8430690814089</v>
       </c>
       <c r="R11" t="n">
-        <v>21.98830079816111</v>
+        <v>73.65494513052354</v>
       </c>
       <c r="S11" t="n">
-        <v>59.36545605999876</v>
+        <v>40.18510548455007</v>
       </c>
       <c r="T11" t="n">
-        <v>56.727547165921</v>
+        <v>136.356685307407</v>
       </c>
       <c r="U11" t="n">
-        <v>40.78143588451056</v>
+        <v>38.18469873665303</v>
       </c>
       <c r="V11" t="n">
-        <v>43.38278680292893</v>
+        <v>20.39477403560205</v>
       </c>
       <c r="W11" t="n">
-        <v>54.03178648096621</v>
+        <v>51.44798119207039</v>
       </c>
       <c r="X11" t="n">
-        <v>129.5478695499572</v>
+        <v>6.781678879127456</v>
       </c>
       <c r="Y11" t="n">
-        <v>22.44827574731383</v>
+        <v>51.48832499680335</v>
       </c>
       <c r="Z11" t="n">
-        <v>22.10309582346181</v>
+        <v>30.12908446090517</v>
       </c>
       <c r="AA11" t="n">
-        <v>27.11951478995211</v>
+        <v>26.25354842006908</v>
       </c>
       <c r="AB11" t="n">
-        <v>29.46612634657217</v>
+        <v>4.31227128976001</v>
       </c>
       <c r="AC11" t="n">
-        <v>15.2759001778426</v>
+        <v>60.61759943481176</v>
       </c>
       <c r="AD11" t="n">
-        <v>216.511817581394</v>
+        <v>83.27870414500867</v>
       </c>
       <c r="AE11" t="n">
-        <v>89.37722485856807</v>
+        <v>14.18366834701203</v>
       </c>
       <c r="AF11" t="n">
-        <v>27.92714498525293</v>
+        <v>17.1003595415828</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>38.34072938753025</v>
       </c>
       <c r="AH11" t="n">
-        <v>22.13291645851972</v>
+        <v>35.38988865946833</v>
       </c>
       <c r="AI11" t="n">
-        <v>64.34159070515415</v>
+        <v>31.12213951887964</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34.74343800991994</v>
+        <v>25.15786882651819</v>
       </c>
       <c r="AK11" t="n">
-        <v>21.65928208930544</v>
+        <v>30.73468961287641</v>
       </c>
       <c r="AL11" t="n">
-        <v>9.112460257828847</v>
+        <v>11.48150416032261</v>
       </c>
       <c r="AM11" t="n">
-        <v>33.96198650005242</v>
+        <v>26.50695343531343</v>
       </c>
       <c r="AN11" t="n">
-        <v>13.25624711298407</v>
+        <v>57.94370747564944</v>
       </c>
       <c r="AO11" t="n">
-        <v>22.04638439044085</v>
+        <v>35.30001750098483</v>
       </c>
       <c r="AP11" t="n">
-        <v>31.78190055369086</v>
+        <v>10.00586616540282</v>
       </c>
       <c r="AQ11" t="n">
-        <v>19.05483337426008</v>
+        <v>7.832351221864487</v>
       </c>
       <c r="AR11" t="n">
-        <v>51.43519977009622</v>
+        <v>7.487309809462511</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.564580467409351</v>
+        <v>22.70434824320028</v>
       </c>
       <c r="AT11" t="n">
-        <v>23.87410265711067</v>
+        <v>18.86632219879143</v>
       </c>
       <c r="AU11" t="n">
-        <v>24.76800369012214</v>
+        <v>35.89909367409599</v>
       </c>
       <c r="AV11" t="n">
-        <v>19.32040788655296</v>
+        <v>32.14489379555127</v>
       </c>
       <c r="AW11" t="n">
-        <v>28.72712952900726</v>
+        <v>30.88768586747909</v>
       </c>
       <c r="AX11" t="n">
-        <v>28.49013006488183</v>
+        <v>11.73347604778825</v>
       </c>
     </row>
     <row r="12">
@@ -2213,148 +2213,148 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>3.819365822766355</v>
+        <v>34.92667193910812</v>
       </c>
       <c r="D12" t="n">
-        <v>2.361579229220653</v>
+        <v>12.62855169685685</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>70.02323375592897</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>10.49247626641437</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>21.7112352133289</v>
       </c>
       <c r="I12" t="n">
-        <v>11.49822901147651</v>
+        <v>14.83226294225929</v>
       </c>
       <c r="J12" t="n">
-        <v>65.46523679924486</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>14.71051900248532</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>8.153002727477929</v>
       </c>
       <c r="M12" t="n">
-        <v>7.518662463539853</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>36.50633027558673</v>
+        <v>17.79745989804591</v>
       </c>
       <c r="O12" t="n">
-        <v>28.28132873393968</v>
+        <v>7.616673680576886</v>
       </c>
       <c r="P12" t="n">
-        <v>12.41840179991874</v>
+        <v>15.96368824141016</v>
       </c>
       <c r="Q12" t="n">
-        <v>35.05278967264406</v>
+        <v>7.401720279804403</v>
       </c>
       <c r="R12" t="n">
-        <v>24.63114575140584</v>
+        <v>33.15587186908233</v>
       </c>
       <c r="S12" t="n">
-        <v>4.494787467036459</v>
+        <v>39.63048392633068</v>
       </c>
       <c r="T12" t="n">
-        <v>27.63779575586931</v>
+        <v>13.78220989224046</v>
       </c>
       <c r="U12" t="n">
-        <v>14.60853064226947</v>
+        <v>4.751392081648602</v>
       </c>
       <c r="V12" t="n">
-        <v>41.1790527307435</v>
+        <v>29.20157526043106</v>
       </c>
       <c r="W12" t="n">
-        <v>25.77870377954862</v>
+        <v>66.18447468381845</v>
       </c>
       <c r="X12" t="n">
-        <v>1.22932029479755</v>
+        <v>22.31039654987351</v>
       </c>
       <c r="Y12" t="n">
-        <v>17.60742493193218</v>
+        <v>46.52956219720959</v>
       </c>
       <c r="Z12" t="n">
-        <v>28.61756130118297</v>
+        <v>50.25847270585324</v>
       </c>
       <c r="AA12" t="n">
-        <v>14.71002898368907</v>
+        <v>14.74380314672409</v>
       </c>
       <c r="AB12" t="n">
-        <v>33.49683457538088</v>
+        <v>3.477679455454179</v>
       </c>
       <c r="AC12" t="n">
-        <v>49.06700632184381</v>
+        <v>13.65871221644336</v>
       </c>
       <c r="AD12" t="n">
-        <v>16.84715632661482</v>
+        <v>20.61573896511149</v>
       </c>
       <c r="AE12" t="n">
-        <v>16.35500317366163</v>
+        <v>13.37299522144328</v>
       </c>
       <c r="AF12" t="n">
-        <v>15.02515849428313</v>
+        <v>15.30930922112152</v>
       </c>
       <c r="AG12" t="n">
-        <v>11.6249936978236</v>
+        <v>6.757253488954171</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.415095072683796</v>
+        <v>16.28164231120839</v>
       </c>
       <c r="AI12" t="n">
-        <v>5.867877679276117</v>
+        <v>11.90628517708044</v>
       </c>
       <c r="AJ12" t="n">
-        <v>5.652834763643679</v>
+        <v>9.606148013983001</v>
       </c>
       <c r="AK12" t="n">
-        <v>4.83159621119478</v>
+        <v>26.52283003201369</v>
       </c>
       <c r="AL12" t="n">
-        <v>5.850475119784217</v>
+        <v>16.42843100779609</v>
       </c>
       <c r="AM12" t="n">
-        <v>4.422123838283308</v>
+        <v>3.881857805441909</v>
       </c>
       <c r="AN12" t="n">
-        <v>8.07552876023882</v>
+        <v>2.534530406591571</v>
       </c>
       <c r="AO12" t="n">
-        <v>5.688965905678027</v>
+        <v>2.14646711756782</v>
       </c>
       <c r="AP12" t="n">
-        <v>2.340038847920282</v>
+        <v>6.949995871634749</v>
       </c>
       <c r="AQ12" t="n">
-        <v>6.352438448627088</v>
+        <v>3.214757552526759</v>
       </c>
       <c r="AR12" t="n">
-        <v>11.64044479695572</v>
+        <v>1.500196480707049</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.4564274057115832</v>
+        <v>1.796012751274175</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.978173143290646</v>
+        <v>2.548511533069869</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.4754775979072394</v>
+        <v>3.43906921139581</v>
       </c>
       <c r="AV12" t="n">
-        <v>1.173056507617188</v>
+        <v>1.1558092955667</v>
       </c>
       <c r="AW12" t="n">
-        <v>3.208755788583555</v>
+        <v>5.965649926005596</v>
       </c>
       <c r="AX12" t="n">
-        <v>3.410111149845289</v>
+        <v>2.041010538059078</v>
       </c>
     </row>
     <row r="13">
@@ -2365,148 +2365,148 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>55.44295825317738</v>
       </c>
       <c r="D13" t="n">
-        <v>4.546338807648948</v>
+        <v>10.23447764597911</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>71.87272162483325</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>6.779105994998943</v>
+        <v>6.894424506742325</v>
       </c>
       <c r="I13" t="n">
-        <v>24.60154090914308</v>
+        <v>30.44357403213163</v>
       </c>
       <c r="J13" t="n">
-        <v>22.38128386904081</v>
+        <v>20.39221664651336</v>
       </c>
       <c r="K13" t="n">
-        <v>36.35023428168857</v>
+        <v>10.77762590332231</v>
       </c>
       <c r="L13" t="n">
-        <v>29.95990131815754</v>
+        <v>67.11759992167124</v>
       </c>
       <c r="M13" t="n">
-        <v>36.52822337003285</v>
+        <v>19.67620970700001</v>
       </c>
       <c r="N13" t="n">
-        <v>94.11489233545295</v>
+        <v>20.49975741031787</v>
       </c>
       <c r="O13" t="n">
-        <v>22.03953373486297</v>
+        <v>21.24479965352413</v>
       </c>
       <c r="P13" t="n">
-        <v>0.1070821778632292</v>
+        <v>18.85459347266685</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.914014247618596</v>
+        <v>33.32987678075474</v>
       </c>
       <c r="R13" t="n">
-        <v>11.21469999951214</v>
+        <v>17.39734538881417</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>71.45316107654675</v>
       </c>
       <c r="T13" t="n">
-        <v>1.948345766823153</v>
+        <v>17.70915047459737</v>
       </c>
       <c r="U13" t="n">
-        <v>33.57863451428099</v>
+        <v>26.5913116288179</v>
       </c>
       <c r="V13" t="n">
-        <v>46.77269253033376</v>
+        <v>62.36001039937209</v>
       </c>
       <c r="W13" t="n">
-        <v>42.39903462745824</v>
+        <v>88.74833094143172</v>
       </c>
       <c r="X13" t="n">
-        <v>16.91972566005473</v>
+        <v>71.29950972770803</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.46850401322153</v>
+        <v>42.50666359915658</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.69787197856115</v>
+        <v>41.88347868813327</v>
       </c>
       <c r="AA13" t="n">
-        <v>3.075222089386908</v>
+        <v>8.030096829782401</v>
       </c>
       <c r="AB13" t="n">
-        <v>24.0763533792941</v>
+        <v>2.388692288160356</v>
       </c>
       <c r="AC13" t="n">
-        <v>5.917351109762208</v>
+        <v>18.11053214835541</v>
       </c>
       <c r="AD13" t="n">
-        <v>54.73812414430724</v>
+        <v>31.38617911927011</v>
       </c>
       <c r="AE13" t="n">
-        <v>2.566303747407896</v>
+        <v>2.661898118915299</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.746335732958778</v>
+        <v>11.29508805198929</v>
       </c>
       <c r="AG13" t="n">
-        <v>2.954043594245711</v>
+        <v>21.60247232391465</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.7067663987140604</v>
+        <v>2.137077292409302</v>
       </c>
       <c r="AI13" t="n">
-        <v>14.67995966897501</v>
+        <v>17.01405019999758</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>12.29077077515429</v>
       </c>
       <c r="AK13" t="n">
-        <v>8.935516951248557</v>
+        <v>5.541938082737022</v>
       </c>
       <c r="AL13" t="n">
-        <v>10.01909254949492</v>
+        <v>12.66793432931994</v>
       </c>
       <c r="AM13" t="n">
-        <v>5.921351488840868</v>
+        <v>10.96304187001968</v>
       </c>
       <c r="AN13" t="n">
-        <v>6.815061972335664</v>
+        <v>5.788158294471913</v>
       </c>
       <c r="AO13" t="n">
-        <v>18.31058637192439</v>
+        <v>10.43923597766863</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.930384792011038</v>
+        <v>3.185259089391962</v>
       </c>
       <c r="AQ13" t="n">
-        <v>7.468010984259385</v>
+        <v>18.17001279277888</v>
       </c>
       <c r="AR13" t="n">
-        <v>7.930172740686065</v>
+        <v>0.7898602816799567</v>
       </c>
       <c r="AS13" t="n">
-        <v>19.87964868119326</v>
+        <v>3.055541561240868</v>
       </c>
       <c r="AT13" t="n">
-        <v>4.852155672852924</v>
+        <v>11.33515089251104</v>
       </c>
       <c r="AU13" t="n">
-        <v>19.3669985150209</v>
+        <v>14.57796483968984</v>
       </c>
       <c r="AV13" t="n">
-        <v>13.19574306830949</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
         <v>0</v>
       </c>
       <c r="AX13" t="n">
-        <v>17.86589609065165</v>
+        <v>22.60660858063905</v>
       </c>
     </row>
     <row r="14">
@@ -2520,145 +2520,145 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>10.40255649833403</v>
+        <v>31.27913646949999</v>
       </c>
       <c r="E14" t="n">
-        <v>8.0034312368843</v>
+        <v>110.3437714136963</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>12.05708636896449</v>
       </c>
       <c r="G14" t="n">
-        <v>27.28803961244548</v>
+        <v>69.28627698175521</v>
       </c>
       <c r="H14" t="n">
-        <v>30.37271047474185</v>
+        <v>136.793787876129</v>
       </c>
       <c r="I14" t="n">
-        <v>48.36137371410984</v>
+        <v>160.33900593669</v>
       </c>
       <c r="J14" t="n">
-        <v>84.62057120879589</v>
+        <v>99.14033575818823</v>
       </c>
       <c r="K14" t="n">
-        <v>116.6688606965622</v>
+        <v>45.13852178690583</v>
       </c>
       <c r="L14" t="n">
-        <v>42.96874714905488</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>90.77332851797209</v>
+        <v>195.7616954831623</v>
       </c>
       <c r="N14" t="n">
-        <v>42.18412258233789</v>
+        <v>21.63775852515283</v>
       </c>
       <c r="O14" t="n">
-        <v>59.57873690717155</v>
+        <v>97.05205615635528</v>
       </c>
       <c r="P14" t="n">
-        <v>137.608782244522</v>
+        <v>77.04257332030639</v>
       </c>
       <c r="Q14" t="n">
-        <v>54.35290238191969</v>
+        <v>60.5253611679231</v>
       </c>
       <c r="R14" t="n">
-        <v>26.79562295081691</v>
+        <v>35.28825157631078</v>
       </c>
       <c r="S14" t="n">
-        <v>48.34435574734844</v>
+        <v>92.79955198996348</v>
       </c>
       <c r="T14" t="n">
-        <v>53.49924883068958</v>
+        <v>57.21494377473259</v>
       </c>
       <c r="U14" t="n">
-        <v>70.66582443845277</v>
+        <v>34.14024439281943</v>
       </c>
       <c r="V14" t="n">
-        <v>36.57258420672373</v>
+        <v>88.74497734749352</v>
       </c>
       <c r="W14" t="n">
-        <v>62.67735335891757</v>
+        <v>37.19514438302324</v>
       </c>
       <c r="X14" t="n">
-        <v>48.49578847212999</v>
+        <v>26.55027802988259</v>
       </c>
       <c r="Y14" t="n">
-        <v>92.54602350639502</v>
+        <v>66.69827929186523</v>
       </c>
       <c r="Z14" t="n">
-        <v>69.1067330984616</v>
+        <v>76.39317892708551</v>
       </c>
       <c r="AA14" t="n">
-        <v>98.05255842372422</v>
+        <v>49.27143896199281</v>
       </c>
       <c r="AB14" t="n">
-        <v>174.490162674464</v>
+        <v>103.1923561901109</v>
       </c>
       <c r="AC14" t="n">
-        <v>105.0040191424933</v>
+        <v>154.0735430761963</v>
       </c>
       <c r="AD14" t="n">
-        <v>82.11853725353431</v>
+        <v>139.6543853371515</v>
       </c>
       <c r="AE14" t="n">
-        <v>137.0397258179728</v>
+        <v>69.15712781824439</v>
       </c>
       <c r="AF14" t="n">
-        <v>87.3479128310379</v>
+        <v>102.7511104596572</v>
       </c>
       <c r="AG14" t="n">
-        <v>137.1511413356624</v>
+        <v>65.34887216104494</v>
       </c>
       <c r="AH14" t="n">
-        <v>142.1268225335908</v>
+        <v>30.29889297130006</v>
       </c>
       <c r="AI14" t="n">
-        <v>43.58569627252949</v>
+        <v>60.71511423600988</v>
       </c>
       <c r="AJ14" t="n">
-        <v>72.32792083001229</v>
+        <v>124.078800840745</v>
       </c>
       <c r="AK14" t="n">
-        <v>137.6208252775561</v>
+        <v>123.644381549718</v>
       </c>
       <c r="AL14" t="n">
-        <v>49.39937699767592</v>
+        <v>53.11246283008876</v>
       </c>
       <c r="AM14" t="n">
-        <v>20.88227539422003</v>
+        <v>29.76873418638051</v>
       </c>
       <c r="AN14" t="n">
-        <v>40.50286494226022</v>
+        <v>49.24119788295459</v>
       </c>
       <c r="AO14" t="n">
-        <v>23.14782283174025</v>
+        <v>28.63839165123898</v>
       </c>
       <c r="AP14" t="n">
-        <v>34.18104642770776</v>
+        <v>21.20135289732105</v>
       </c>
       <c r="AQ14" t="n">
-        <v>30.38067317239331</v>
+        <v>21.79916508549989</v>
       </c>
       <c r="AR14" t="n">
-        <v>62.24104984777568</v>
+        <v>28.20848065687145</v>
       </c>
       <c r="AS14" t="n">
-        <v>20.66338880801691</v>
+        <v>19.70956496073518</v>
       </c>
       <c r="AT14" t="n">
-        <v>18.55315628364689</v>
+        <v>16.91065700149449</v>
       </c>
       <c r="AU14" t="n">
-        <v>17.33898337956789</v>
+        <v>23.05354198152074</v>
       </c>
       <c r="AV14" t="n">
-        <v>15.87219622594674</v>
+        <v>30.71379119044804</v>
       </c>
       <c r="AW14" t="n">
-        <v>29.15710936727204</v>
+        <v>15.0608918933859</v>
       </c>
       <c r="AX14" t="n">
-        <v>11.79250397157952</v>
+        <v>14.3795327060688</v>
       </c>
     </row>
     <row r="15">
@@ -2675,142 +2675,142 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1.063478942799648</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2.0998110340889</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>4.158788683086847</v>
+        <v>4.71406876290017</v>
       </c>
       <c r="I15" t="n">
-        <v>2.505731421143318</v>
+        <v>1.379810442682956</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8093058754883837</v>
+        <v>1.334181201889569</v>
       </c>
       <c r="K15" t="n">
-        <v>4.487556250124874</v>
+        <v>6.985735273636745</v>
       </c>
       <c r="L15" t="n">
-        <v>6.041641516035288</v>
+        <v>3.357962859178496</v>
       </c>
       <c r="M15" t="n">
-        <v>2.058947215155765</v>
+        <v>3.730306657957587</v>
       </c>
       <c r="N15" t="n">
-        <v>0.8479087051296366</v>
+        <v>0.2244003055625134</v>
       </c>
       <c r="O15" t="n">
-        <v>3.346711151782369</v>
+        <v>3.85216195215045</v>
       </c>
       <c r="P15" t="n">
-        <v>0.1903071249855628</v>
+        <v>5.73311236472659</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.322283027125267</v>
+        <v>1.786207623192682</v>
       </c>
       <c r="R15" t="n">
-        <v>1.015828205240797</v>
+        <v>1.8772733612341</v>
       </c>
       <c r="S15" t="n">
-        <v>8.777971471909789</v>
+        <v>7.981803849004411</v>
       </c>
       <c r="T15" t="n">
-        <v>5.777145598116936</v>
+        <v>4.379911868003387</v>
       </c>
       <c r="U15" t="n">
-        <v>27.06654680323751</v>
+        <v>6.98507822018104</v>
       </c>
       <c r="V15" t="n">
-        <v>2.399214169482387</v>
+        <v>8.3405108774041</v>
       </c>
       <c r="W15" t="n">
-        <v>9.531465415138788</v>
+        <v>5.401353212854469</v>
       </c>
       <c r="X15" t="n">
-        <v>4.493171384533914</v>
+        <v>3.621393539912532</v>
       </c>
       <c r="Y15" t="n">
-        <v>2.363094624321771</v>
+        <v>6.677228039664139</v>
       </c>
       <c r="Z15" t="n">
-        <v>4.593646674950259</v>
+        <v>5.0711319138125</v>
       </c>
       <c r="AA15" t="n">
-        <v>5.435972009825826</v>
+        <v>4.18190429338277</v>
       </c>
       <c r="AB15" t="n">
-        <v>4.737971387292237</v>
+        <v>3.973588363594256</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.007925964005086</v>
+        <v>3.004043875258073</v>
       </c>
       <c r="AD15" t="n">
-        <v>5.909967916446084</v>
+        <v>5.057039878021731</v>
       </c>
       <c r="AE15" t="n">
-        <v>9.998501131838688</v>
+        <v>6.771065521572581</v>
       </c>
       <c r="AF15" t="n">
-        <v>7.612998498331951</v>
+        <v>2.360629661544566</v>
       </c>
       <c r="AG15" t="n">
-        <v>2.05679609959345</v>
+        <v>1.626333693582219</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.877329088866376</v>
+        <v>6.375198447754391</v>
       </c>
       <c r="AI15" t="n">
-        <v>3.400897093116757</v>
+        <v>6.116580004110812</v>
       </c>
       <c r="AJ15" t="n">
-        <v>7.461755684519868</v>
+        <v>4.236870459666749</v>
       </c>
       <c r="AK15" t="n">
-        <v>6.015776206045317</v>
+        <v>3.352193687818335</v>
       </c>
       <c r="AL15" t="n">
-        <v>4.266519073818086</v>
+        <v>4.404330822519251</v>
       </c>
       <c r="AM15" t="n">
-        <v>1.598722207631061</v>
+        <v>1.498782564805881</v>
       </c>
       <c r="AN15" t="n">
-        <v>3.739886426855731</v>
+        <v>2.023030884919797</v>
       </c>
       <c r="AO15" t="n">
-        <v>5.314041951595204</v>
+        <v>3.19810141392658</v>
       </c>
       <c r="AP15" t="n">
-        <v>1.486048021284078</v>
+        <v>0</v>
       </c>
       <c r="AQ15" t="n">
-        <v>4.241276137481683</v>
+        <v>4.172337729852106</v>
       </c>
       <c r="AR15" t="n">
-        <v>7.148434506532205</v>
+        <v>4.323996131664797</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.992686450344384</v>
+        <v>4.701966871028853</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.731047951642934</v>
+        <v>2.547118170864693</v>
       </c>
       <c r="AU15" t="n">
-        <v>1.595218795777746</v>
+        <v>2.45357400472598</v>
       </c>
       <c r="AV15" t="n">
-        <v>3.405361184946048</v>
+        <v>7.445625545615782</v>
       </c>
       <c r="AW15" t="n">
-        <v>3.433322973817621</v>
+        <v>1.041346104000998</v>
       </c>
       <c r="AX15" t="n">
-        <v>3.120755357648281</v>
+        <v>5.480922125099969</v>
       </c>
     </row>
     <row r="16">
@@ -2824,145 +2824,145 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>4.881103124760587</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>73.4120545525416</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>54.57155051923124</v>
       </c>
       <c r="H16" t="n">
-        <v>54.44194902454859</v>
+        <v>111.5116018019391</v>
       </c>
       <c r="I16" t="n">
-        <v>8.076354082496653</v>
+        <v>9.573467902020999</v>
       </c>
       <c r="J16" t="n">
-        <v>32.16666694570313</v>
+        <v>70.94904946029992</v>
       </c>
       <c r="K16" t="n">
-        <v>135.8832953964613</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>51.55800438485142</v>
+        <v>14.36278891795519</v>
       </c>
       <c r="M16" t="n">
-        <v>7.836851151530212</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>163.6136869861037</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>19.45201675494944</v>
+        <v>79.46667175583849</v>
       </c>
       <c r="P16" t="n">
-        <v>122.0385695114495</v>
+        <v>75.43379286351374</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.8270148138664</v>
+        <v>62.48283468778997</v>
       </c>
       <c r="R16" t="n">
-        <v>41.28992898003501</v>
+        <v>48.92538349892428</v>
       </c>
       <c r="S16" t="n">
-        <v>49.57911753662366</v>
+        <v>133.5945889949602</v>
       </c>
       <c r="T16" t="n">
-        <v>134.040062038495</v>
+        <v>54.9733520303209</v>
       </c>
       <c r="U16" t="n">
-        <v>30.63111629503807</v>
+        <v>54.17691259725214</v>
       </c>
       <c r="V16" t="n">
-        <v>1.403519139775799</v>
+        <v>32.00062367664593</v>
       </c>
       <c r="W16" t="n">
-        <v>110.0204459170059</v>
+        <v>97.28431600325152</v>
       </c>
       <c r="X16" t="n">
-        <v>64.06841182518386</v>
+        <v>47.06280102940057</v>
       </c>
       <c r="Y16" t="n">
-        <v>44.73982080147033</v>
+        <v>45.08636834195493</v>
       </c>
       <c r="Z16" t="n">
-        <v>64.28601145106451</v>
+        <v>59.00664350827483</v>
       </c>
       <c r="AA16" t="n">
-        <v>83.8008915820898</v>
+        <v>22.76929858496447</v>
       </c>
       <c r="AB16" t="n">
-        <v>42.78233277359337</v>
+        <v>93.06181463231017</v>
       </c>
       <c r="AC16" t="n">
-        <v>55.71524118441216</v>
+        <v>84.3381930700485</v>
       </c>
       <c r="AD16" t="n">
-        <v>89.61317779216316</v>
+        <v>50.20393763278845</v>
       </c>
       <c r="AE16" t="n">
-        <v>64.15666588757193</v>
+        <v>107.6560335285681</v>
       </c>
       <c r="AF16" t="n">
-        <v>23.32391182293486</v>
+        <v>60.53117588338748</v>
       </c>
       <c r="AG16" t="n">
-        <v>155.7224936039715</v>
+        <v>114.4769429032396</v>
       </c>
       <c r="AH16" t="n">
-        <v>35.1358964800822</v>
+        <v>41.55718652581966</v>
       </c>
       <c r="AI16" t="n">
-        <v>103.9923508377252</v>
+        <v>29.9282913955849</v>
       </c>
       <c r="AJ16" t="n">
-        <v>31.76880967847505</v>
+        <v>64.58546955548334</v>
       </c>
       <c r="AK16" t="n">
-        <v>28.13097422296558</v>
+        <v>59.12040945717842</v>
       </c>
       <c r="AL16" t="n">
-        <v>25.86314567750744</v>
+        <v>8.997909203137999</v>
       </c>
       <c r="AM16" t="n">
-        <v>28.28126418222656</v>
+        <v>19.8269940788082</v>
       </c>
       <c r="AN16" t="n">
-        <v>9.402112135860616</v>
+        <v>12.87940320756421</v>
       </c>
       <c r="AO16" t="n">
-        <v>13.72373445672015</v>
+        <v>11.76489639092198</v>
       </c>
       <c r="AP16" t="n">
-        <v>10.18511243766621</v>
+        <v>37.66572266028459</v>
       </c>
       <c r="AQ16" t="n">
-        <v>12.7118581430485</v>
+        <v>56.25151664515741</v>
       </c>
       <c r="AR16" t="n">
-        <v>29.91724588929899</v>
+        <v>4.071926982609957</v>
       </c>
       <c r="AS16" t="n">
-        <v>10.58979646223709</v>
+        <v>19.06136984674795</v>
       </c>
       <c r="AT16" t="n">
-        <v>9.304320537191353</v>
+        <v>16.25199520617609</v>
       </c>
       <c r="AU16" t="n">
-        <v>11.3506362186013</v>
+        <v>35.06292464501463</v>
       </c>
       <c r="AV16" t="n">
-        <v>12.40658760434204</v>
+        <v>23.71943908986121</v>
       </c>
       <c r="AW16" t="n">
-        <v>3.508768463908416</v>
+        <v>13.63273234856215</v>
       </c>
       <c r="AX16" t="n">
-        <v>9.216797181248829</v>
+        <v>23.67875658183422</v>
       </c>
     </row>
     <row r="17">
@@ -2973,148 +2973,148 @@
         <v>3</v>
       </c>
       <c r="C17" t="n">
-        <v>24.33783504601843</v>
+        <v>30.9700480247406</v>
       </c>
       <c r="D17" t="n">
-        <v>22.0075676552197</v>
+        <v>14.32038460296132</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>35.66494736431761</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>65.834457164501</v>
       </c>
       <c r="H17" t="n">
-        <v>29.94347502345286</v>
+        <v>31.01900737154948</v>
       </c>
       <c r="I17" t="n">
-        <v>23.7131250268233</v>
+        <v>12.62000883238332</v>
       </c>
       <c r="J17" t="n">
-        <v>51.50762039277495</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>26.79092355455855</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>34.55010954493893</v>
       </c>
       <c r="M17" t="n">
-        <v>16.55921043194918</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>220.7525700523284</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>188.7490229250576</v>
+        <v>16.37137744188055</v>
       </c>
       <c r="P17" t="n">
-        <v>54.77642461529019</v>
+        <v>57.40953173472437</v>
       </c>
       <c r="Q17" t="n">
-        <v>70.84870323669548</v>
+        <v>15.28360113169553</v>
       </c>
       <c r="R17" t="n">
-        <v>0.5132470445059018</v>
+        <v>37.39525824525362</v>
       </c>
       <c r="S17" t="n">
-        <v>84.51690200622936</v>
+        <v>30.99547839641206</v>
       </c>
       <c r="T17" t="n">
-        <v>40.99264155659345</v>
+        <v>291.9475662545988</v>
       </c>
       <c r="U17" t="n">
-        <v>32.79819068927437</v>
+        <v>54.22458859288742</v>
       </c>
       <c r="V17" t="n">
-        <v>121.0489914151131</v>
+        <v>46.43820162771756</v>
       </c>
       <c r="W17" t="n">
-        <v>33.74076106611151</v>
+        <v>26.87826914286964</v>
       </c>
       <c r="X17" t="n">
-        <v>69.57967916855179</v>
+        <v>55.95069910268786</v>
       </c>
       <c r="Y17" t="n">
-        <v>37.23132277378526</v>
+        <v>88.55857495447009</v>
       </c>
       <c r="Z17" t="n">
-        <v>22.37768632317009</v>
+        <v>43.00465312280193</v>
       </c>
       <c r="AA17" t="n">
-        <v>31.9729439238384</v>
+        <v>29.93449477479254</v>
       </c>
       <c r="AB17" t="n">
-        <v>41.5806575714157</v>
+        <v>33.19970188404535</v>
       </c>
       <c r="AC17" t="n">
-        <v>11.70952626474577</v>
+        <v>19.88751936265004</v>
       </c>
       <c r="AD17" t="n">
-        <v>58.94619232465924</v>
+        <v>16.73104864571711</v>
       </c>
       <c r="AE17" t="n">
-        <v>97.31064180781514</v>
+        <v>11.64022726923792</v>
       </c>
       <c r="AF17" t="n">
-        <v>40.0051349646382</v>
+        <v>14.21317727727959</v>
       </c>
       <c r="AG17" t="n">
-        <v>73.8224057615077</v>
+        <v>37.76642973115326</v>
       </c>
       <c r="AH17" t="n">
-        <v>46.88228841629111</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
-        <v>19.62175298142228</v>
+        <v>44.53674199728303</v>
       </c>
       <c r="AJ17" t="n">
-        <v>19.80637380329695</v>
+        <v>34.50354524136345</v>
       </c>
       <c r="AK17" t="n">
-        <v>25.02663793605878</v>
+        <v>49.81673362820222</v>
       </c>
       <c r="AL17" t="n">
-        <v>26.0232737173644</v>
+        <v>75.44689621072112</v>
       </c>
       <c r="AM17" t="n">
-        <v>19.18208093349407</v>
+        <v>26.36649059560252</v>
       </c>
       <c r="AN17" t="n">
-        <v>29.70354126162162</v>
+        <v>26.10205565218026</v>
       </c>
       <c r="AO17" t="n">
-        <v>28.99870892536794</v>
+        <v>33.8308912767522</v>
       </c>
       <c r="AP17" t="n">
-        <v>9.841464740712293</v>
+        <v>23.72141938729539</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>23.99450810677586</v>
       </c>
       <c r="AR17" t="n">
-        <v>34.32725992454971</v>
+        <v>33.96000928731305</v>
       </c>
       <c r="AS17" t="n">
-        <v>23.36109181184228</v>
+        <v>1.078170578591341</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>25.98591022040594</v>
       </c>
       <c r="AU17" t="n">
-        <v>22.95750085569434</v>
+        <v>15.91930544610164</v>
       </c>
       <c r="AV17" t="n">
-        <v>24.20817204154983</v>
+        <v>12.85063969682708</v>
       </c>
       <c r="AW17" t="n">
-        <v>2.323184249962214</v>
+        <v>31.04105807268095</v>
       </c>
       <c r="AX17" t="n">
-        <v>42.59169306355235</v>
+        <v>32.79948661903056</v>
       </c>
     </row>
     <row r="18">
@@ -3125,148 +3125,148 @@
         <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>3.57329445957231</v>
+        <v>1.413413271360346</v>
       </c>
       <c r="D18" t="n">
-        <v>10.67246365592394</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.4094331811495966</v>
+        <v>151.5292318825864</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>36.49434471952885</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>7.35110887511029</v>
       </c>
       <c r="H18" t="n">
-        <v>2.900134623423751</v>
+        <v>5.008173826430628</v>
       </c>
       <c r="I18" t="n">
-        <v>10.18034802058377</v>
+        <v>1.915450586379514</v>
       </c>
       <c r="J18" t="n">
-        <v>6.229422206377226</v>
+        <v>4.129519846425087</v>
       </c>
       <c r="K18" t="n">
-        <v>63.3877248327998</v>
+        <v>27.67668653698806</v>
       </c>
       <c r="L18" t="n">
-        <v>42.18564263637695</v>
+        <v>51.85257691518223</v>
       </c>
       <c r="M18" t="n">
-        <v>17.86236241685026</v>
+        <v>4.162156815236358</v>
       </c>
       <c r="N18" t="n">
-        <v>19.30261057755084</v>
+        <v>38.80524242178931</v>
       </c>
       <c r="O18" t="n">
-        <v>13.98988457950224</v>
+        <v>8.082242190983516</v>
       </c>
       <c r="P18" t="n">
-        <v>9.425194805132337</v>
+        <v>14.72466511459891</v>
       </c>
       <c r="Q18" t="n">
-        <v>58.84782899857316</v>
+        <v>22.94311744615633</v>
       </c>
       <c r="R18" t="n">
-        <v>9.806285022467565</v>
+        <v>33.84075164321617</v>
       </c>
       <c r="S18" t="n">
-        <v>29.02359933040555</v>
+        <v>29.88956170759603</v>
       </c>
       <c r="T18" t="n">
-        <v>45.61669733324598</v>
+        <v>21.01286457993932</v>
       </c>
       <c r="U18" t="n">
-        <v>38.11269222095896</v>
+        <v>43.34747873117248</v>
       </c>
       <c r="V18" t="n">
-        <v>8.722993206653793</v>
+        <v>13.15564478139052</v>
       </c>
       <c r="W18" t="n">
-        <v>53.47771383887165</v>
+        <v>8.319076086763989</v>
       </c>
       <c r="X18" t="n">
-        <v>47.99503021682003</v>
+        <v>5.6803939244628</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.556041972095394</v>
+        <v>25.56427099595446</v>
       </c>
       <c r="Z18" t="n">
-        <v>21.00273544508504</v>
+        <v>14.96535263568198</v>
       </c>
       <c r="AA18" t="n">
-        <v>15.53400235182859</v>
+        <v>22.25074172752783</v>
       </c>
       <c r="AB18" t="n">
-        <v>22.44090646057181</v>
+        <v>17.99073548704976</v>
       </c>
       <c r="AC18" t="n">
-        <v>10.66831403697278</v>
+        <v>17.59704070866121</v>
       </c>
       <c r="AD18" t="n">
-        <v>15.71212957057909</v>
+        <v>16.58354263744855</v>
       </c>
       <c r="AE18" t="n">
-        <v>11.26645222285053</v>
+        <v>2.054970420485001</v>
       </c>
       <c r="AF18" t="n">
-        <v>18.37758855961252</v>
+        <v>9.636989707042648</v>
       </c>
       <c r="AG18" t="n">
-        <v>16.47061971076374</v>
+        <v>13.06606569488013</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.911721870239955</v>
+        <v>21.93028273423821</v>
       </c>
       <c r="AI18" t="n">
-        <v>13.84422591409962</v>
+        <v>10.45648221288249</v>
       </c>
       <c r="AJ18" t="n">
-        <v>25.13876602710204</v>
+        <v>5.909396915299821</v>
       </c>
       <c r="AK18" t="n">
-        <v>6.719145577007419</v>
+        <v>15.72161136879125</v>
       </c>
       <c r="AL18" t="n">
-        <v>5.16808364075995</v>
+        <v>4.110135973096136</v>
       </c>
       <c r="AM18" t="n">
-        <v>5.779996791182098</v>
+        <v>1.728520121427085</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.638708925003139</v>
+        <v>2.19473626135591</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.9432648647985828</v>
+        <v>4.634461614832182</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.914315944530722</v>
+        <v>1.678580468844229</v>
       </c>
       <c r="AQ18" t="n">
-        <v>2.211647295007033</v>
+        <v>1.562677561731936</v>
       </c>
       <c r="AR18" t="n">
-        <v>1.09523927106676</v>
+        <v>1.346608299872483</v>
       </c>
       <c r="AS18" t="n">
-        <v>3.871887961404775</v>
+        <v>2.031916476745575</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.745682185272885</v>
+        <v>6.054026564938851</v>
       </c>
       <c r="AU18" t="n">
-        <v>4.93972960207885</v>
+        <v>4.52943042221889</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.7160361836272091</v>
+        <v>0</v>
       </c>
       <c r="AW18" t="n">
-        <v>2.644524795874667</v>
+        <v>1.855229063876126</v>
       </c>
       <c r="AX18" t="n">
-        <v>2.344338614299481</v>
+        <v>1.182568483479621</v>
       </c>
     </row>
     <row r="19">
@@ -3277,148 +3277,148 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>45.8177341780662</v>
       </c>
       <c r="D19" t="n">
-        <v>4.286688068415405</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>26.30588252331978</v>
       </c>
       <c r="F19" t="n">
-        <v>10.52376960383972</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>12.09067557654267</v>
       </c>
       <c r="H19" t="n">
-        <v>14.85250880607336</v>
+        <v>19.63173600614493</v>
       </c>
       <c r="I19" t="n">
-        <v>10.2442940264908</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>10.03977980104979</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>15.75583164001944</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>20.34192132252205</v>
+        <v>18.20300173817215</v>
       </c>
       <c r="M19" t="n">
-        <v>22.90457405309719</v>
+        <v>11.16305362381739</v>
       </c>
       <c r="N19" t="n">
-        <v>38.09128036681211</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>52.26155112279086</v>
+        <v>25.15066737765676</v>
       </c>
       <c r="P19" t="n">
-        <v>54.76816253744815</v>
+        <v>19.42344481466544</v>
       </c>
       <c r="Q19" t="n">
-        <v>55.67339262573113</v>
+        <v>15.96758245437049</v>
       </c>
       <c r="R19" t="n">
-        <v>99.69497253464024</v>
+        <v>7.100716470050186</v>
       </c>
       <c r="S19" t="n">
-        <v>23.29862204137922</v>
+        <v>13.76535872610264</v>
       </c>
       <c r="T19" t="n">
-        <v>1.23223725892548</v>
+        <v>18.2787701434406</v>
       </c>
       <c r="U19" t="n">
-        <v>11.76185081618782</v>
+        <v>18.22538460715415</v>
       </c>
       <c r="V19" t="n">
-        <v>20.12064799280365</v>
+        <v>26.77167705870599</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>17.88375095056652</v>
       </c>
       <c r="X19" t="n">
-        <v>43.63073885624274</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.835920432417449</v>
+        <v>85.72007157163331</v>
       </c>
       <c r="Z19" t="n">
-        <v>24.66934155915196</v>
+        <v>54.38985966425307</v>
       </c>
       <c r="AA19" t="n">
-        <v>9.679185184000152</v>
+        <v>9.786083846573367</v>
       </c>
       <c r="AB19" t="n">
-        <v>25.24894213700716</v>
+        <v>39.21296293174812</v>
       </c>
       <c r="AC19" t="n">
-        <v>47.70614467191787</v>
+        <v>8.761447311511422</v>
       </c>
       <c r="AD19" t="n">
-        <v>5.726185420889847</v>
+        <v>23.26614188937302</v>
       </c>
       <c r="AE19" t="n">
         <v>0</v>
       </c>
       <c r="AF19" t="n">
-        <v>8.963545467181763</v>
+        <v>19.39737839422995</v>
       </c>
       <c r="AG19" t="n">
-        <v>23.62841568737659</v>
+        <v>21.30498149191228</v>
       </c>
       <c r="AH19" t="n">
-        <v>5.462337859247474</v>
+        <v>0</v>
       </c>
       <c r="AI19" t="n">
-        <v>1.873845900249272</v>
+        <v>2.506418284677927</v>
       </c>
       <c r="AJ19" t="n">
-        <v>4.646332860075882</v>
+        <v>8.151292818732113</v>
       </c>
       <c r="AK19" t="n">
-        <v>39.0026815857366</v>
+        <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>14.32580111044666</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="n">
-        <v>5.748552762650117</v>
+        <v>13.56233422657407</v>
       </c>
       <c r="AN19" t="n">
-        <v>0</v>
+        <v>9.414482216836312</v>
       </c>
       <c r="AO19" t="n">
-        <v>14.68528081745047</v>
+        <v>11.8498250466055</v>
       </c>
       <c r="AP19" t="n">
-        <v>5.749523990733317</v>
+        <v>1.990110850884515</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1.663465132981629</v>
+        <v>3.667636014057612</v>
       </c>
       <c r="AR19" t="n">
-        <v>5.594193024541236</v>
+        <v>2.534006472043079</v>
       </c>
       <c r="AS19" t="n">
-        <v>0</v>
+        <v>6.933753385799672</v>
       </c>
       <c r="AT19" t="n">
-        <v>8.258378650692498</v>
+        <v>6.35915481926182</v>
       </c>
       <c r="AU19" t="n">
-        <v>18.28835870109371</v>
+        <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>12.65249875713974</v>
+        <v>6.973797824847631</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.914592114982185</v>
+        <v>1.747390487874229</v>
       </c>
       <c r="AX19" t="n">
-        <v>3.524672100702845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -3429,148 +3429,148 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>22.58002705051272</v>
+        <v>33.60605162051373</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>22.52666196897513</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>4.17394863117002</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>87.54097761028798</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>20.29594321987523</v>
       </c>
       <c r="H20" t="n">
-        <v>24.24586491849118</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>170.1393270077828</v>
+        <v>12.35368576567651</v>
       </c>
       <c r="J20" t="n">
-        <v>65.23442986167299</v>
+        <v>8.785273373304399</v>
       </c>
       <c r="K20" t="n">
-        <v>27.16922933039689</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>132.4353593705167</v>
+        <v>14.45633587948598</v>
       </c>
       <c r="M20" t="n">
-        <v>28.48999443365559</v>
+        <v>35.82189947247673</v>
       </c>
       <c r="N20" t="n">
-        <v>86.96081394145352</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>121.589667445188</v>
+        <v>88.38221615308258</v>
       </c>
       <c r="P20" t="n">
-        <v>73.1194374324299</v>
+        <v>49.6321655756055</v>
       </c>
       <c r="Q20" t="n">
-        <v>46.98727499584316</v>
+        <v>62.37923922332217</v>
       </c>
       <c r="R20" t="n">
-        <v>96.72863053146459</v>
+        <v>36.89659190748314</v>
       </c>
       <c r="S20" t="n">
-        <v>84.33217713402242</v>
+        <v>200.332313051116</v>
       </c>
       <c r="T20" t="n">
-        <v>137.1698543305204</v>
+        <v>46.63198112129673</v>
       </c>
       <c r="U20" t="n">
-        <v>31.53791716984165</v>
+        <v>47.56513386386576</v>
       </c>
       <c r="V20" t="n">
-        <v>33.54415289326799</v>
+        <v>158.6157990861937</v>
       </c>
       <c r="W20" t="n">
-        <v>102.367423673241</v>
+        <v>20.61436814081838</v>
       </c>
       <c r="X20" t="n">
-        <v>115.9784426214878</v>
+        <v>109.3482330997438</v>
       </c>
       <c r="Y20" t="n">
-        <v>71.0450063303244</v>
+        <v>68.70461178301872</v>
       </c>
       <c r="Z20" t="n">
-        <v>90.30060946344182</v>
+        <v>74.68148858943815</v>
       </c>
       <c r="AA20" t="n">
-        <v>101.5089982132399</v>
+        <v>114.6398433344343</v>
       </c>
       <c r="AB20" t="n">
-        <v>69.2700360473921</v>
+        <v>71.59782823113548</v>
       </c>
       <c r="AC20" t="n">
-        <v>105.6859710045731</v>
+        <v>90.60799440341702</v>
       </c>
       <c r="AD20" t="n">
-        <v>114.8901870734563</v>
+        <v>129.1326867324515</v>
       </c>
       <c r="AE20" t="n">
-        <v>164.7660547838181</v>
+        <v>87.21584006325898</v>
       </c>
       <c r="AF20" t="n">
-        <v>161.7690248458946</v>
+        <v>152.5263605888904</v>
       </c>
       <c r="AG20" t="n">
-        <v>114.6439782948386</v>
+        <v>55.92688857615312</v>
       </c>
       <c r="AH20" t="n">
-        <v>34.28578728600392</v>
+        <v>69.90189546598147</v>
       </c>
       <c r="AI20" t="n">
-        <v>98.97405851093895</v>
+        <v>106.2820092368562</v>
       </c>
       <c r="AJ20" t="n">
-        <v>21.40950536987021</v>
+        <v>119.5091230958898</v>
       </c>
       <c r="AK20" t="n">
-        <v>59.25658305886904</v>
+        <v>17.6780151156406</v>
       </c>
       <c r="AL20" t="n">
-        <v>31.75791230702167</v>
+        <v>109.4917765562055</v>
       </c>
       <c r="AM20" t="n">
-        <v>16.74841847516361</v>
+        <v>32.17557240821689</v>
       </c>
       <c r="AN20" t="n">
-        <v>59.48378157905492</v>
+        <v>14.88397605957995</v>
       </c>
       <c r="AO20" t="n">
-        <v>63.43560592107573</v>
+        <v>32.73103807939775</v>
       </c>
       <c r="AP20" t="n">
-        <v>15.48500052526889</v>
+        <v>12.47855931489152</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13.29074476337228</v>
+        <v>26.9633977795582</v>
       </c>
       <c r="AR20" t="n">
-        <v>63.69520044068813</v>
+        <v>31.12155896295653</v>
       </c>
       <c r="AS20" t="n">
-        <v>23.95954820805214</v>
+        <v>12.42839490486961</v>
       </c>
       <c r="AT20" t="n">
-        <v>24.0103065773968</v>
+        <v>34.03190245463927</v>
       </c>
       <c r="AU20" t="n">
-        <v>23.66319918420668</v>
+        <v>26.85680821530233</v>
       </c>
       <c r="AV20" t="n">
-        <v>18.98530307969564</v>
+        <v>27.20343381693313</v>
       </c>
       <c r="AW20" t="n">
-        <v>19.70958716608851</v>
+        <v>13.98084215613225</v>
       </c>
       <c r="AX20" t="n">
-        <v>26.45344658232923</v>
+        <v>29.02499592138687</v>
       </c>
     </row>
     <row r="21">
@@ -3581,148 +3581,148 @@
         <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>3.485075113562531</v>
+        <v>13.56169353842484</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>3.021069737273393</v>
       </c>
       <c r="E21" t="n">
-        <v>2.001918360957009</v>
+        <v>2.336311002627291</v>
       </c>
       <c r="F21" t="n">
-        <v>3.50648738251829</v>
+        <v>1.964146985046849</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2.060211410475203</v>
+        <v>2.665206516548087</v>
       </c>
       <c r="I21" t="n">
-        <v>3.464426179305724</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>4.669900755886933</v>
+        <v>2.564601650222285</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2373903349388137</v>
+        <v>6.825192131781229</v>
       </c>
       <c r="L21" t="n">
-        <v>8.023773960609809</v>
+        <v>5.581879745627912</v>
       </c>
       <c r="M21" t="n">
-        <v>1.372896085346495</v>
+        <v>0.7190751672738021</v>
       </c>
       <c r="N21" t="n">
-        <v>6.960454552525809</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>4.799826354600309</v>
+        <v>4.695678509838115</v>
       </c>
       <c r="P21" t="n">
-        <v>1.002701970060733</v>
+        <v>3.12116269124002</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.623394791115608</v>
+        <v>2.103162004919441</v>
       </c>
       <c r="R21" t="n">
-        <v>3.279504018772161</v>
+        <v>2.901588441385582</v>
       </c>
       <c r="S21" t="n">
-        <v>5.668817398804224</v>
+        <v>2.781298598554511</v>
       </c>
       <c r="T21" t="n">
-        <v>9.680161576703835</v>
+        <v>4.529336302563488</v>
       </c>
       <c r="U21" t="n">
-        <v>27.28970939964325</v>
+        <v>5.701360775399589</v>
       </c>
       <c r="V21" t="n">
-        <v>0.9788542669152829</v>
+        <v>1.235084815224345</v>
       </c>
       <c r="W21" t="n">
-        <v>3.160088352268086</v>
+        <v>2.404232922784766</v>
       </c>
       <c r="X21" t="n">
-        <v>4.873903908562792</v>
+        <v>1.998770107549266</v>
       </c>
       <c r="Y21" t="n">
-        <v>1.535914239582534</v>
+        <v>4.809697683932779</v>
       </c>
       <c r="Z21" t="n">
-        <v>3.429762629010093</v>
+        <v>2.100851899137077</v>
       </c>
       <c r="AA21" t="n">
-        <v>4.537057891456918</v>
+        <v>3.948709954950726</v>
       </c>
       <c r="AB21" t="n">
-        <v>5.934112370269926</v>
+        <v>4.746929197094528</v>
       </c>
       <c r="AC21" t="n">
-        <v>5.222021498759942</v>
+        <v>10.09889389963169</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.863180498886389</v>
+        <v>5.741007284133876</v>
       </c>
       <c r="AE21" t="n">
-        <v>6.331347556127763</v>
+        <v>3.604596661574091</v>
       </c>
       <c r="AF21" t="n">
-        <v>5.672007146849779</v>
+        <v>3.911880285239238</v>
       </c>
       <c r="AG21" t="n">
-        <v>4.522705418675153</v>
+        <v>2.667455550311181</v>
       </c>
       <c r="AH21" t="n">
-        <v>2.360282078917907</v>
+        <v>3.610304693378792</v>
       </c>
       <c r="AI21" t="n">
-        <v>4.989689239245647</v>
+        <v>3.041019589025819</v>
       </c>
       <c r="AJ21" t="n">
-        <v>10.55080504751786</v>
+        <v>6.226693105667059</v>
       </c>
       <c r="AK21" t="n">
-        <v>3.272355515028514</v>
+        <v>3.573425410857902</v>
       </c>
       <c r="AL21" t="n">
-        <v>2.024652520082291</v>
+        <v>3.795192516785675</v>
       </c>
       <c r="AM21" t="n">
-        <v>5.524929423321177</v>
+        <v>2.886019599359062</v>
       </c>
       <c r="AN21" t="n">
-        <v>2.321597475615723</v>
+        <v>2.494708696282253</v>
       </c>
       <c r="AO21" t="n">
-        <v>1.762475309487658</v>
+        <v>2.061915065332066</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.109785393949476</v>
+        <v>4.232822651430097</v>
       </c>
       <c r="AQ21" t="n">
-        <v>3.178812503536044</v>
+        <v>5.40174334397769</v>
       </c>
       <c r="AR21" t="n">
-        <v>7.469541821114064</v>
+        <v>2.654446936320222</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.832610781768615</v>
+        <v>0</v>
       </c>
       <c r="AT21" t="n">
-        <v>5.982999010466836</v>
+        <v>2.501761518183522</v>
       </c>
       <c r="AU21" t="n">
-        <v>3.13675642535493</v>
+        <v>4.00756125583916</v>
       </c>
       <c r="AV21" t="n">
-        <v>3.287981400291042</v>
+        <v>4.178628594010905</v>
       </c>
       <c r="AW21" t="n">
-        <v>4.217277435232933</v>
+        <v>2.764067479151749</v>
       </c>
       <c r="AX21" t="n">
-        <v>2.432794565839684</v>
+        <v>2.666039558979406</v>
       </c>
     </row>
     <row r="22">
@@ -3733,148 +3733,148 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>10.08179034461384</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>14.02167576026895</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>5.11853394026128</v>
+        <v>27.28900912096561</v>
       </c>
       <c r="F22" t="n">
-        <v>32.52971570155525</v>
+        <v>0.114729021431824</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>31.14974863587121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>55.75820643833897</v>
+        <v>76.55575978694887</v>
       </c>
       <c r="J22" t="n">
-        <v>178.1861770611329</v>
+        <v>123.4923019176397</v>
       </c>
       <c r="K22" t="n">
-        <v>33.52734498763731</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>36.91831647240983</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>81.14452996206228</v>
+        <v>32.13084622126257</v>
       </c>
       <c r="N22" t="n">
-        <v>48.82531601055084</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>51.92053383191114</v>
       </c>
       <c r="P22" t="n">
-        <v>233.9474088766596</v>
+        <v>148.3672469672388</v>
       </c>
       <c r="Q22" t="n">
-        <v>12.546411397778</v>
+        <v>51.39299003743061</v>
       </c>
       <c r="R22" t="n">
-        <v>59.77109621167622</v>
+        <v>245.1407349840324</v>
       </c>
       <c r="S22" t="n">
-        <v>62.24956177169069</v>
+        <v>43.82537176382687</v>
       </c>
       <c r="T22" t="n">
-        <v>51.04495398158517</v>
+        <v>80.37692130233754</v>
       </c>
       <c r="U22" t="n">
-        <v>39.63860422399028</v>
+        <v>370.4211659582258</v>
       </c>
       <c r="V22" t="n">
-        <v>68.61723469244035</v>
+        <v>65.84040535663723</v>
       </c>
       <c r="W22" t="n">
-        <v>53.65385411147771</v>
+        <v>112.1208439386319</v>
       </c>
       <c r="X22" t="n">
-        <v>34.56847333041294</v>
+        <v>10.32847975614443</v>
       </c>
       <c r="Y22" t="n">
-        <v>39.66812012146356</v>
+        <v>82.48836419728353</v>
       </c>
       <c r="Z22" t="n">
-        <v>63.0342269128201</v>
+        <v>54.01575065057798</v>
       </c>
       <c r="AA22" t="n">
-        <v>34.64140620767635</v>
+        <v>78.40450429049901</v>
       </c>
       <c r="AB22" t="n">
-        <v>73.54432119400467</v>
+        <v>38.39625420125437</v>
       </c>
       <c r="AC22" t="n">
-        <v>47.15577248727974</v>
+        <v>105.0416649670345</v>
       </c>
       <c r="AD22" t="n">
-        <v>48.17411121993153</v>
+        <v>26.9283933762046</v>
       </c>
       <c r="AE22" t="n">
-        <v>34.11038930543052</v>
+        <v>34.30917725694186</v>
       </c>
       <c r="AF22" t="n">
-        <v>98.32577319382212</v>
+        <v>0</v>
       </c>
       <c r="AG22" t="n">
-        <v>46.33252346330158</v>
+        <v>32.09615708003121</v>
       </c>
       <c r="AH22" t="n">
-        <v>42.6380586933064</v>
+        <v>7.453531583569072</v>
       </c>
       <c r="AI22" t="n">
-        <v>35.98087443161835</v>
+        <v>79.43243657540449</v>
       </c>
       <c r="AJ22" t="n">
-        <v>93.46090561533828</v>
+        <v>135.0108148559134</v>
       </c>
       <c r="AK22" t="n">
-        <v>81.68996407876365</v>
+        <v>76.43820459602104</v>
       </c>
       <c r="AL22" t="n">
-        <v>40.01156852039039</v>
+        <v>73.3976062400541</v>
       </c>
       <c r="AM22" t="n">
-        <v>43.32711669642796</v>
+        <v>18.15353705843323</v>
       </c>
       <c r="AN22" t="n">
-        <v>7.057386212958203</v>
+        <v>32.38058473735411</v>
       </c>
       <c r="AO22" t="n">
-        <v>22.1626392579808</v>
+        <v>6.791431730852056</v>
       </c>
       <c r="AP22" t="n">
-        <v>13.0624522760506</v>
+        <v>5.17785264763188</v>
       </c>
       <c r="AQ22" t="n">
-        <v>11.21044614012677</v>
+        <v>6.143384446624123</v>
       </c>
       <c r="AR22" t="n">
-        <v>15.66915781637246</v>
+        <v>10.70997472653931</v>
       </c>
       <c r="AS22" t="n">
-        <v>9.113519284404543</v>
+        <v>21.05264364144316</v>
       </c>
       <c r="AT22" t="n">
-        <v>9.32148024180116</v>
+        <v>14.07191202500511</v>
       </c>
       <c r="AU22" t="n">
-        <v>21.17001201541242</v>
+        <v>16.65181245049541</v>
       </c>
       <c r="AV22" t="n">
-        <v>6.840520779214669</v>
+        <v>38.55080322716307</v>
       </c>
       <c r="AW22" t="n">
-        <v>10.82923352448883</v>
+        <v>17.93753972702151</v>
       </c>
       <c r="AX22" t="n">
-        <v>7.0860988149461</v>
+        <v>7.238354717405473</v>
       </c>
     </row>
     <row r="23">
@@ -3888,145 +3888,145 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>7.02771757642494</v>
+        <v>42.18643577600048</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>41.99743204267959</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>5.974321432789679</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>19.87970726304293</v>
       </c>
       <c r="H23" t="n">
-        <v>8.190626862343599</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>24.16056560761416</v>
+        <v>11.46151281635455</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>102.2929229709592</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>25.1514274608694</v>
       </c>
       <c r="L23" t="n">
-        <v>53.26605328713872</v>
+        <v>35.54670956227478</v>
       </c>
       <c r="M23" t="n">
-        <v>40.06624402248227</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>77.00865835090777</v>
       </c>
       <c r="O23" t="n">
-        <v>20.67419475770436</v>
+        <v>21.32944370278381</v>
       </c>
       <c r="P23" t="n">
-        <v>253.6326738511762</v>
+        <v>219.922065709691</v>
       </c>
       <c r="Q23" t="n">
-        <v>6.487798640347602</v>
+        <v>41.06280929184727</v>
       </c>
       <c r="R23" t="n">
-        <v>33.61873952775843</v>
+        <v>161.5362541068206</v>
       </c>
       <c r="S23" t="n">
-        <v>47.66149516382454</v>
+        <v>49.66742744099039</v>
       </c>
       <c r="T23" t="n">
-        <v>95.75262624247719</v>
+        <v>47.95792845112505</v>
       </c>
       <c r="U23" t="n">
-        <v>31.01801715343014</v>
+        <v>107.4729287947805</v>
       </c>
       <c r="V23" t="n">
-        <v>88.60037697924426</v>
+        <v>44.82453792705473</v>
       </c>
       <c r="W23" t="n">
-        <v>32.05052607447313</v>
+        <v>46.22080952082595</v>
       </c>
       <c r="X23" t="n">
-        <v>56.45840532306932</v>
+        <v>18.03254090639077</v>
       </c>
       <c r="Y23" t="n">
-        <v>37.83853026583191</v>
+        <v>45.21941105415521</v>
       </c>
       <c r="Z23" t="n">
-        <v>64.70653906643224</v>
+        <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>60.41499696545017</v>
+        <v>42.04083849545528</v>
       </c>
       <c r="AB23" t="n">
-        <v>18.05374981322813</v>
+        <v>30.07065400670136</v>
       </c>
       <c r="AC23" t="n">
-        <v>38.10571657321205</v>
+        <v>22.79694077591593</v>
       </c>
       <c r="AD23" t="n">
-        <v>26.1513568156775</v>
+        <v>21.00522566043368</v>
       </c>
       <c r="AE23" t="n">
-        <v>155.7854088748329</v>
+        <v>46.45039230831168</v>
       </c>
       <c r="AF23" t="n">
-        <v>65.5121428530699</v>
+        <v>5.94017669502539</v>
       </c>
       <c r="AG23" t="n">
-        <v>30.76925068380609</v>
+        <v>32.80673400803915</v>
       </c>
       <c r="AH23" t="n">
-        <v>114.4214258364997</v>
+        <v>23.23995767077991</v>
       </c>
       <c r="AI23" t="n">
-        <v>14.31930094580851</v>
+        <v>28.84934169090957</v>
       </c>
       <c r="AJ23" t="n">
-        <v>16.81090887231196</v>
+        <v>18.32311154216883</v>
       </c>
       <c r="AK23" t="n">
-        <v>34.75756547754699</v>
+        <v>98.69705687964752</v>
       </c>
       <c r="AL23" t="n">
-        <v>23.17073461976562</v>
+        <v>63.83922104225684</v>
       </c>
       <c r="AM23" t="n">
-        <v>70.19338008586335</v>
+        <v>32.71094452700251</v>
       </c>
       <c r="AN23" t="n">
-        <v>32.17025082876606</v>
+        <v>34.55983213917022</v>
       </c>
       <c r="AO23" t="n">
-        <v>27.08670136054112</v>
+        <v>19.59703341293564</v>
       </c>
       <c r="AP23" t="n">
-        <v>47.42266107779658</v>
+        <v>0.1494311171263646</v>
       </c>
       <c r="AQ23" t="n">
-        <v>18.88603357693918</v>
+        <v>25.72026121057592</v>
       </c>
       <c r="AR23" t="n">
-        <v>28.26466674826989</v>
+        <v>21.50685395245619</v>
       </c>
       <c r="AS23" t="n">
-        <v>21.81087429830491</v>
+        <v>30.63485545923068</v>
       </c>
       <c r="AT23" t="n">
-        <v>21.87574728860023</v>
+        <v>19.77559338460695</v>
       </c>
       <c r="AU23" t="n">
-        <v>13.41046385022414</v>
+        <v>6.146389700951685</v>
       </c>
       <c r="AV23" t="n">
-        <v>8.016241034633378</v>
+        <v>35.81151693894537</v>
       </c>
       <c r="AW23" t="n">
-        <v>16.88361913955995</v>
+        <v>27.55819337812827</v>
       </c>
       <c r="AX23" t="n">
-        <v>29.07499139198345</v>
+        <v>28.6450475013305</v>
       </c>
     </row>
     <row r="24">
@@ -4037,148 +4037,148 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
-        <v>2.831385101266819</v>
+        <v>9.557074052059944</v>
       </c>
       <c r="D24" t="n">
-        <v>5.808891151641238</v>
+        <v>46.34714892044484</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>5.184544032475108</v>
       </c>
       <c r="F24" t="n">
-        <v>1.36283562885815</v>
+        <v>14.9465429588204</v>
       </c>
       <c r="G24" t="n">
-        <v>6.363074333601867</v>
+        <v>19.95620497398212</v>
       </c>
       <c r="H24" t="n">
-        <v>9.431204149323385</v>
+        <v>6.345938186140973</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2.101815018433084</v>
       </c>
       <c r="K24" t="n">
-        <v>16.89042586963652</v>
+        <v>18.01680635489662</v>
       </c>
       <c r="L24" t="n">
-        <v>16.40899988734585</v>
+        <v>16.87929102850895</v>
       </c>
       <c r="M24" t="n">
-        <v>28.10844472684045</v>
+        <v>27.1431682604271</v>
       </c>
       <c r="N24" t="n">
-        <v>19.26066091647217</v>
+        <v>20.23594497228496</v>
       </c>
       <c r="O24" t="n">
-        <v>23.38236476206436</v>
+        <v>25.09199435497996</v>
       </c>
       <c r="P24" t="n">
-        <v>19.43355869369665</v>
+        <v>18.36106223590658</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.267585663389607</v>
+        <v>72.24725423312759</v>
       </c>
       <c r="R24" t="n">
-        <v>28.90145641300625</v>
+        <v>31.13211959730359</v>
       </c>
       <c r="S24" t="n">
-        <v>50.13375254401955</v>
+        <v>43.47394318748826</v>
       </c>
       <c r="T24" t="n">
-        <v>11.97089335930748</v>
+        <v>13.29762102575564</v>
       </c>
       <c r="U24" t="n">
-        <v>5.238732284257022</v>
+        <v>30.59106365155451</v>
       </c>
       <c r="V24" t="n">
-        <v>34.1747235831029</v>
+        <v>13.3052871680936</v>
       </c>
       <c r="W24" t="n">
-        <v>22.99109717021888</v>
+        <v>9.792489104780939</v>
       </c>
       <c r="X24" t="n">
-        <v>4.911343829355985</v>
+        <v>23.94515892178243</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.712567659469943</v>
+        <v>19.30133509899835</v>
       </c>
       <c r="Z24" t="n">
-        <v>75.84020846570832</v>
+        <v>8.483245685299345</v>
       </c>
       <c r="AA24" t="n">
-        <v>28.7083004808468</v>
+        <v>9.265119504942769</v>
       </c>
       <c r="AB24" t="n">
-        <v>11.99971425943104</v>
+        <v>9.040775860937737</v>
       </c>
       <c r="AC24" t="n">
-        <v>15.19217834662249</v>
+        <v>21.34831201291846</v>
       </c>
       <c r="AD24" t="n">
-        <v>14.41678457315055</v>
+        <v>13.9798278567607</v>
       </c>
       <c r="AE24" t="n">
-        <v>20.34272083102761</v>
+        <v>15.27903069059828</v>
       </c>
       <c r="AF24" t="n">
-        <v>16.35271579211219</v>
+        <v>10.62858081625387</v>
       </c>
       <c r="AG24" t="n">
-        <v>16.5481680221307</v>
+        <v>13.52070748571297</v>
       </c>
       <c r="AH24" t="n">
-        <v>11.12911713261714</v>
+        <v>20.51360370312991</v>
       </c>
       <c r="AI24" t="n">
-        <v>13.62008681029562</v>
+        <v>20.37452933884628</v>
       </c>
       <c r="AJ24" t="n">
-        <v>18.77097942463018</v>
+        <v>6.919829376549173</v>
       </c>
       <c r="AK24" t="n">
-        <v>6.479048291369899</v>
+        <v>18.15471693173458</v>
       </c>
       <c r="AL24" t="n">
-        <v>3.536074912745088</v>
+        <v>14.87163810019982</v>
       </c>
       <c r="AM24" t="n">
-        <v>2.148271069180106</v>
+        <v>4.826682878621226</v>
       </c>
       <c r="AN24" t="n">
-        <v>6.933340071192678</v>
+        <v>1.573320100755874</v>
       </c>
       <c r="AO24" t="n">
-        <v>3.346364320504889</v>
+        <v>2.579803704104346</v>
       </c>
       <c r="AP24" t="n">
-        <v>4.595479767218912</v>
+        <v>4.213962765720971</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.136709080905351</v>
+        <v>4.300070061729764</v>
       </c>
       <c r="AR24" t="n">
-        <v>4.086501586923869</v>
+        <v>4.401360674271752</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.808216556050867</v>
+        <v>7.164657777534908</v>
       </c>
       <c r="AT24" t="n">
-        <v>4.007672288604724</v>
+        <v>4.245396225760693</v>
       </c>
       <c r="AU24" t="n">
-        <v>3.681834529666271</v>
+        <v>6.378095419921994</v>
       </c>
       <c r="AV24" t="n">
-        <v>4.822138370138102</v>
+        <v>2.934507427141875</v>
       </c>
       <c r="AW24" t="n">
-        <v>2.642181666109651</v>
+        <v>5.09026836331519</v>
       </c>
       <c r="AX24" t="n">
-        <v>0.6618680586615815</v>
+        <v>3.957286688052758</v>
       </c>
     </row>
     <row r="25">
@@ -4189,148 +4189,148 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>4.021765301050426</v>
+        <v>33.63798856935347</v>
       </c>
       <c r="D25" t="n">
-        <v>24.56052163395089</v>
+        <v>8.079258368405245</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>61.20232284438895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>40.85522517766832</v>
       </c>
       <c r="G25" t="n">
-        <v>11.89044135282763</v>
+        <v>39.82808614641262</v>
       </c>
       <c r="H25" t="n">
-        <v>178.4786720965322</v>
+        <v>6.80318014275257</v>
       </c>
       <c r="I25" t="n">
-        <v>13.50202307597307</v>
+        <v>9.934118083138827</v>
       </c>
       <c r="J25" t="n">
-        <v>10.45783248885083</v>
+        <v>13.9454827943863</v>
       </c>
       <c r="K25" t="n">
-        <v>32.81389447790458</v>
+        <v>21.1608887278945</v>
       </c>
       <c r="L25" t="n">
-        <v>51.37298446172069</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>49.26395858526705</v>
+        <v>12.65407366568763</v>
       </c>
       <c r="N25" t="n">
-        <v>12.14099531534758</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>22.53280682610132</v>
+        <v>13.90442980377855</v>
       </c>
       <c r="P25" t="n">
-        <v>4.384891973797919</v>
+        <v>25.03589819260674</v>
       </c>
       <c r="Q25" t="n">
-        <v>17.96321296463516</v>
+        <v>11.43004436900186</v>
       </c>
       <c r="R25" t="n">
-        <v>19.11157059573188</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.43147513734417</v>
+        <v>1.623771178001622</v>
       </c>
       <c r="T25" t="n">
-        <v>48.66833901539137</v>
+        <v>2.711475066819984</v>
       </c>
       <c r="U25" t="n">
-        <v>34.37037405229103</v>
+        <v>43.78245879724534</v>
       </c>
       <c r="V25" t="n">
-        <v>41.91549431428949</v>
+        <v>77.04373927280928</v>
       </c>
       <c r="W25" t="n">
-        <v>10.44322167460129</v>
+        <v>42.33723656480289</v>
       </c>
       <c r="X25" t="n">
-        <v>30.41549473788091</v>
+        <v>12.199191229333</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.5981844139007659</v>
+        <v>31.58500878933732</v>
       </c>
       <c r="Z25" t="n">
-        <v>3.653266064585975</v>
+        <v>48.32611426848544</v>
       </c>
       <c r="AA25" t="n">
-        <v>17.28337394863172</v>
+        <v>14.33091081141505</v>
       </c>
       <c r="AB25" t="n">
-        <v>11.81052800106876</v>
+        <v>2.220063677776444</v>
       </c>
       <c r="AC25" t="n">
-        <v>17.33543431146391</v>
+        <v>16.04359567370688</v>
       </c>
       <c r="AD25" t="n">
-        <v>5.499475092015143</v>
+        <v>3.048434417880469</v>
       </c>
       <c r="AE25" t="n">
-        <v>13.11066626330121</v>
+        <v>0.7545108267385134</v>
       </c>
       <c r="AF25" t="n">
-        <v>6.514830891973263</v>
+        <v>1.379521560647804</v>
       </c>
       <c r="AG25" t="n">
-        <v>9.573463659357332</v>
+        <v>4.70584402295648</v>
       </c>
       <c r="AH25" t="n">
-        <v>4.197893292814268</v>
+        <v>0.6280980702733006</v>
       </c>
       <c r="AI25" t="n">
-        <v>0.1201246826873623</v>
+        <v>7.503065415848971</v>
       </c>
       <c r="AJ25" t="n">
-        <v>10.79859813941952</v>
+        <v>31.80435214126844</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.6648789107033752</v>
+        <v>34.1330784376087</v>
       </c>
       <c r="AL25" t="n">
-        <v>19.78876053134832</v>
+        <v>19.06893238192405</v>
       </c>
       <c r="AM25" t="n">
         <v>0</v>
       </c>
       <c r="AN25" t="n">
-        <v>23.65533885330862</v>
+        <v>1.620374492508046</v>
       </c>
       <c r="AO25" t="n">
-        <v>4.602528478448352</v>
+        <v>11.5931160220711</v>
       </c>
       <c r="AP25" t="n">
-        <v>13.82377484655098</v>
+        <v>10.88344220154655</v>
       </c>
       <c r="AQ25" t="n">
-        <v>8.938638276488803</v>
+        <v>14.19395117733631</v>
       </c>
       <c r="AR25" t="n">
-        <v>12.7239433698613</v>
+        <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>0</v>
+        <v>0.4008313704413611</v>
       </c>
       <c r="AT25" t="n">
-        <v>9.148303224459005</v>
+        <v>8.86250878905085</v>
       </c>
       <c r="AU25" t="n">
-        <v>1.963462589663599</v>
+        <v>0</v>
       </c>
       <c r="AV25" t="n">
-        <v>5.651602521532278</v>
+        <v>23.93822535042007</v>
       </c>
       <c r="AW25" t="n">
-        <v>16.485574417367</v>
+        <v>10.72416068331608</v>
       </c>
       <c r="AX25" t="n">
-        <v>19.80387479110042</v>
+        <v>7.079326975374794</v>
       </c>
     </row>
     <row r="26">
@@ -4341,148 +4341,148 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>51.99599003840035</v>
       </c>
       <c r="D26" t="n">
-        <v>11.08651984513022</v>
+        <v>28.37113443716902</v>
       </c>
       <c r="E26" t="n">
-        <v>35.9391276140421</v>
+        <v>52.71214312838013</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>78.44724993068225</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>496.9459281905082</v>
       </c>
       <c r="H26" t="n">
-        <v>39.30127881206741</v>
+        <v>97.73084498333273</v>
       </c>
       <c r="I26" t="n">
-        <v>18.96084103959474</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>46.4985445699049</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>180.673558753844</v>
+        <v>63.32962081451851</v>
       </c>
       <c r="M26" t="n">
-        <v>34.20555161951005</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>70.85520229296084</v>
+        <v>6.764540260185729</v>
       </c>
       <c r="O26" t="n">
-        <v>80.0913220199424</v>
+        <v>46.21374467681309</v>
       </c>
       <c r="P26" t="n">
-        <v>79.2873618797737</v>
+        <v>65.5825780556015</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.21534174605493</v>
+        <v>53.93962137317216</v>
       </c>
       <c r="R26" t="n">
-        <v>39.88036892678603</v>
+        <v>86.57123980465849</v>
       </c>
       <c r="S26" t="n">
-        <v>119.6856600613481</v>
+        <v>45.93057686291552</v>
       </c>
       <c r="T26" t="n">
-        <v>101.2936625519611</v>
+        <v>47.40885067457654</v>
       </c>
       <c r="U26" t="n">
-        <v>81.35388162564578</v>
+        <v>140.9342908767146</v>
       </c>
       <c r="V26" t="n">
-        <v>44.16500345016915</v>
+        <v>45.15148219477458</v>
       </c>
       <c r="W26" t="n">
-        <v>58.25936606286633</v>
+        <v>110.0948623088493</v>
       </c>
       <c r="X26" t="n">
-        <v>124.2714475356452</v>
+        <v>55.12748490409798</v>
       </c>
       <c r="Y26" t="n">
-        <v>97.58824314713024</v>
+        <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>116.5839989740746</v>
+        <v>16.54461837020894</v>
       </c>
       <c r="AA26" t="n">
-        <v>52.727838672571</v>
+        <v>179.24121177575</v>
       </c>
       <c r="AB26" t="n">
-        <v>81.77544302633879</v>
+        <v>52.47109266807186</v>
       </c>
       <c r="AC26" t="n">
-        <v>71.27565870778233</v>
+        <v>18.70660094636879</v>
       </c>
       <c r="AD26" t="n">
-        <v>54.65489198333084</v>
+        <v>81.49034627642702</v>
       </c>
       <c r="AE26" t="n">
-        <v>138.7804339043472</v>
+        <v>76.99412210977725</v>
       </c>
       <c r="AF26" t="n">
-        <v>87.64012737956382</v>
+        <v>98.45578169557641</v>
       </c>
       <c r="AG26" t="n">
-        <v>135.5916317139081</v>
+        <v>121.9327125204675</v>
       </c>
       <c r="AH26" t="n">
-        <v>75.36645546300856</v>
+        <v>87.46263502427637</v>
       </c>
       <c r="AI26" t="n">
-        <v>29.49824873128828</v>
+        <v>49.31960437987165</v>
       </c>
       <c r="AJ26" t="n">
-        <v>29.85935798417865</v>
+        <v>161.0676092526122</v>
       </c>
       <c r="AK26" t="n">
-        <v>62.16889241480735</v>
+        <v>78.8180690101254</v>
       </c>
       <c r="AL26" t="n">
-        <v>40.51332550826969</v>
+        <v>44.55396665260655</v>
       </c>
       <c r="AM26" t="n">
-        <v>47.71370536422582</v>
+        <v>24.83394326972236</v>
       </c>
       <c r="AN26" t="n">
-        <v>34.54525255834027</v>
+        <v>23.08001241765808</v>
       </c>
       <c r="AO26" t="n">
-        <v>33.48339030374266</v>
+        <v>36.14856057985684</v>
       </c>
       <c r="AP26" t="n">
-        <v>79.78570977682415</v>
+        <v>17.67067194457632</v>
       </c>
       <c r="AQ26" t="n">
-        <v>63.36957695778732</v>
+        <v>29.60311778367472</v>
       </c>
       <c r="AR26" t="n">
-        <v>21.68159432085599</v>
+        <v>9.154410806266149</v>
       </c>
       <c r="AS26" t="n">
-        <v>21.82625464371518</v>
+        <v>24.49136915129114</v>
       </c>
       <c r="AT26" t="n">
-        <v>26.4533723490826</v>
+        <v>13.98642089169877</v>
       </c>
       <c r="AU26" t="n">
-        <v>24.54070162845509</v>
+        <v>26.81114487912169</v>
       </c>
       <c r="AV26" t="n">
-        <v>21.98947642126205</v>
+        <v>17.22655993016844</v>
       </c>
       <c r="AW26" t="n">
-        <v>17.87379807741783</v>
+        <v>44.52563746234962</v>
       </c>
       <c r="AX26" t="n">
-        <v>28.22342143921296</v>
+        <v>24.16100020063854</v>
       </c>
     </row>
     <row r="27">
@@ -4493,148 +4493,148 @@
         <v>5</v>
       </c>
       <c r="C27" t="n">
-        <v>2.031879354650227</v>
+        <v>2.315535510858264</v>
       </c>
       <c r="D27" t="n">
-        <v>3.461471103830759</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>3.235182971065317</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>4.278404148234898</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>13.25424191137829</v>
+        <v>2.93465012285906</v>
       </c>
       <c r="I27" t="n">
-        <v>2.835944068921451</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>3.995632894006047</v>
+        <v>3.773915652658665</v>
       </c>
       <c r="K27" t="n">
-        <v>1.736073873549439</v>
+        <v>4.563947013484674</v>
       </c>
       <c r="L27" t="n">
-        <v>4.465594914573766</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>5.47284551634794</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0.4575633619151429</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>4.024045941943194</v>
+        <v>1.527121820333996</v>
       </c>
       <c r="P27" t="n">
-        <v>6.212432907964665</v>
+        <v>4.123897285147343</v>
       </c>
       <c r="Q27" t="n">
-        <v>4.048062157724146</v>
+        <v>0.6227805775077508</v>
       </c>
       <c r="R27" t="n">
-        <v>5.207242501873744</v>
+        <v>4.701520160926712</v>
       </c>
       <c r="S27" t="n">
-        <v>1.45283595671965</v>
+        <v>4.265161661444349</v>
       </c>
       <c r="T27" t="n">
-        <v>8.078743206083411</v>
+        <v>4.373131948433683</v>
       </c>
       <c r="U27" t="n">
-        <v>5.590098402281379</v>
+        <v>1.076565108414197</v>
       </c>
       <c r="V27" t="n">
-        <v>2.091516743827619</v>
+        <v>1.320174535263574</v>
       </c>
       <c r="W27" t="n">
-        <v>1.709993024663367</v>
+        <v>5.620604999031383</v>
       </c>
       <c r="X27" t="n">
-        <v>0.7412880777190509</v>
+        <v>8.638720732635147</v>
       </c>
       <c r="Y27" t="n">
-        <v>0.8954748330257669</v>
+        <v>5.822488749554598</v>
       </c>
       <c r="Z27" t="n">
-        <v>2.46198659157296</v>
+        <v>6.476527338834299</v>
       </c>
       <c r="AA27" t="n">
-        <v>3.025762421728826</v>
+        <v>3.916412727705499</v>
       </c>
       <c r="AB27" t="n">
-        <v>4.831271615925313</v>
+        <v>6.440940903559392</v>
       </c>
       <c r="AC27" t="n">
-        <v>2.408296495352149</v>
+        <v>5.361068235154761</v>
       </c>
       <c r="AD27" t="n">
-        <v>5.092446413683319</v>
+        <v>1.350325981818012</v>
       </c>
       <c r="AE27" t="n">
-        <v>6.828629205838164</v>
+        <v>9.052187744516315</v>
       </c>
       <c r="AF27" t="n">
-        <v>6.860205669401682</v>
+        <v>6.920555880373103</v>
       </c>
       <c r="AG27" t="n">
-        <v>5.581528754004573</v>
+        <v>1.178296768735653</v>
       </c>
       <c r="AH27" t="n">
-        <v>3.808493919960667</v>
+        <v>1.966620610127246</v>
       </c>
       <c r="AI27" t="n">
-        <v>5.499320398145838</v>
+        <v>4.678841932422555</v>
       </c>
       <c r="AJ27" t="n">
-        <v>3.238215410361958</v>
+        <v>9.096190780227687</v>
       </c>
       <c r="AK27" t="n">
-        <v>2.425771828591272</v>
+        <v>3.647901219172599</v>
       </c>
       <c r="AL27" t="n">
-        <v>2.963258155099441</v>
+        <v>3.491354063335587</v>
       </c>
       <c r="AM27" t="n">
-        <v>7.940910281856872</v>
+        <v>2.272643361637613</v>
       </c>
       <c r="AN27" t="n">
-        <v>5.091018622935549</v>
+        <v>4.490688688767435</v>
       </c>
       <c r="AO27" t="n">
-        <v>4.171130904447893</v>
+        <v>2.885810252331639</v>
       </c>
       <c r="AP27" t="n">
-        <v>3.01368198534486</v>
+        <v>5.177767240324746</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.977286165442223</v>
+        <v>3.425821473583841</v>
       </c>
       <c r="AR27" t="n">
-        <v>1.904264602887677</v>
+        <v>1.968367300394505</v>
       </c>
       <c r="AS27" t="n">
-        <v>3.985658227049243</v>
+        <v>5.025461113824127</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.8347415688979978</v>
+        <v>2.803038225194647</v>
       </c>
       <c r="AU27" t="n">
-        <v>1.796663611872602</v>
+        <v>2.492674392745249</v>
       </c>
       <c r="AV27" t="n">
-        <v>2.144891185725734</v>
+        <v>2.818320705117779</v>
       </c>
       <c r="AW27" t="n">
-        <v>0</v>
+        <v>4.733135735024872</v>
       </c>
       <c r="AX27" t="n">
-        <v>2.663500156877186</v>
+        <v>4.421138702462512</v>
       </c>
     </row>
     <row r="28">
@@ -4645,148 +4645,148 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>13.09655743318093</v>
+        <v>249.9049792341013</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>13.88877336943434</v>
       </c>
       <c r="E28" t="n">
-        <v>14.10124476743149</v>
+        <v>103.8820749602224</v>
       </c>
       <c r="F28" t="n">
-        <v>14.17950973794103</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>37.46357762632917</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1.098891175533861</v>
+        <v>5.46811339576975</v>
       </c>
       <c r="J28" t="n">
-        <v>16.15058621572454</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>68.77671675994239</v>
+        <v>54.12288843527355</v>
       </c>
       <c r="L28" t="n">
-        <v>33.1306735780628</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>16.38845530139471</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>169.2308899838939</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>40.78023623906222</v>
+        <v>46.06854180907015</v>
       </c>
       <c r="P28" t="n">
-        <v>49.55577700011735</v>
+        <v>22.32366344746504</v>
       </c>
       <c r="Q28" t="n">
-        <v>25.98145581457102</v>
+        <v>13.58195483902715</v>
       </c>
       <c r="R28" t="n">
-        <v>59.670365050407</v>
+        <v>36.10811157156604</v>
       </c>
       <c r="S28" t="n">
-        <v>37.13085478419259</v>
+        <v>70.15611388703614</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9806362156595263</v>
+        <v>344.1517847203717</v>
       </c>
       <c r="U28" t="n">
-        <v>47.1910127975395</v>
+        <v>35.71856574489078</v>
       </c>
       <c r="V28" t="n">
-        <v>127.7586580978259</v>
+        <v>64.9863512239816</v>
       </c>
       <c r="W28" t="n">
-        <v>93.2104761516736</v>
+        <v>126.485099371225</v>
       </c>
       <c r="X28" t="n">
-        <v>31.56284365201263</v>
+        <v>59.74475139400483</v>
       </c>
       <c r="Y28" t="n">
-        <v>37.79572438483845</v>
+        <v>87.24991704845741</v>
       </c>
       <c r="Z28" t="n">
-        <v>80.15540237538129</v>
+        <v>62.27553896420233</v>
       </c>
       <c r="AA28" t="n">
-        <v>32.82705720203614</v>
+        <v>42.58959409310366</v>
       </c>
       <c r="AB28" t="n">
-        <v>74.1079654407022</v>
+        <v>37.42299228927565</v>
       </c>
       <c r="AC28" t="n">
-        <v>68.98426385831453</v>
+        <v>69.46265210933932</v>
       </c>
       <c r="AD28" t="n">
-        <v>185.0933511980755</v>
+        <v>63.34573803161277</v>
       </c>
       <c r="AE28" t="n">
-        <v>79.37829781232558</v>
+        <v>63.45756057997458</v>
       </c>
       <c r="AF28" t="n">
-        <v>116.5531286089306</v>
+        <v>71.6200441982031</v>
       </c>
       <c r="AG28" t="n">
-        <v>32.76707064986127</v>
+        <v>57.51528350461214</v>
       </c>
       <c r="AH28" t="n">
-        <v>84.42492779154425</v>
+        <v>54.7688967803988</v>
       </c>
       <c r="AI28" t="n">
-        <v>94.95322936996801</v>
+        <v>32.67331748124072</v>
       </c>
       <c r="AJ28" t="n">
-        <v>57.38272653022481</v>
+        <v>82.99581979468479</v>
       </c>
       <c r="AK28" t="n">
-        <v>30.22400344609527</v>
+        <v>32.4033710706536</v>
       </c>
       <c r="AL28" t="n">
-        <v>11.46344195068215</v>
+        <v>50.98605220014024</v>
       </c>
       <c r="AM28" t="n">
-        <v>10.3461680674478</v>
+        <v>26.92615168956588</v>
       </c>
       <c r="AN28" t="n">
-        <v>41.66818444231478</v>
+        <v>16.48113712996153</v>
       </c>
       <c r="AO28" t="n">
-        <v>15.16926031167461</v>
+        <v>7.71121342078843</v>
       </c>
       <c r="AP28" t="n">
-        <v>19.83208461206018</v>
+        <v>8.894765384470167</v>
       </c>
       <c r="AQ28" t="n">
-        <v>10.60798914872148</v>
+        <v>26.70805831908654</v>
       </c>
       <c r="AR28" t="n">
-        <v>9.201117149440375</v>
+        <v>13.6700568907637</v>
       </c>
       <c r="AS28" t="n">
-        <v>12.08969400723259</v>
+        <v>7.289588876120267</v>
       </c>
       <c r="AT28" t="n">
-        <v>15.26479932313801</v>
+        <v>14.68646547930665</v>
       </c>
       <c r="AU28" t="n">
-        <v>13.99170658706731</v>
+        <v>20.22955670744068</v>
       </c>
       <c r="AV28" t="n">
-        <v>5.861546840706023</v>
+        <v>30.11169981845358</v>
       </c>
       <c r="AW28" t="n">
-        <v>12.9266574006259</v>
+        <v>2.808034058016497</v>
       </c>
       <c r="AX28" t="n">
-        <v>9.080279218479278</v>
+        <v>20.61311425157331</v>
       </c>
     </row>
     <row r="29">
@@ -4797,148 +4797,148 @@
         <v>5</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>32.01116674389483</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>5.473382875719393</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>2.451344525562219</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>16.26172842156816</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>39.83015603621921</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>22.84678432543254</v>
+        <v>26.71911907721054</v>
       </c>
       <c r="L29" t="n">
-        <v>36.80174969290866</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>120.1874361469628</v>
+        <v>39.88816303836462</v>
       </c>
       <c r="N29" t="n">
-        <v>6.564700998299847</v>
+        <v>25.12175843111422</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>9.222495456805079</v>
       </c>
       <c r="P29" t="n">
-        <v>82.36198876745119</v>
+        <v>36.9292265407911</v>
       </c>
       <c r="Q29" t="n">
-        <v>99.42065895129528</v>
+        <v>47.9974701213084</v>
       </c>
       <c r="R29" t="n">
-        <v>37.79016340296496</v>
+        <v>67.26267580642244</v>
       </c>
       <c r="S29" t="n">
-        <v>62.28639993440628</v>
+        <v>53.10768755088224</v>
       </c>
       <c r="T29" t="n">
-        <v>52.49141088594822</v>
+        <v>49.51024477533096</v>
       </c>
       <c r="U29" t="n">
-        <v>103.2401507190078</v>
+        <v>43.00705337840148</v>
       </c>
       <c r="V29" t="n">
-        <v>47.99247212051713</v>
+        <v>54.67314012333468</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>31.79981421116208</v>
       </c>
       <c r="X29" t="n">
-        <v>215.2227799909803</v>
+        <v>214.3182472586121</v>
       </c>
       <c r="Y29" t="n">
-        <v>40.66081329773613</v>
+        <v>55.36195165638409</v>
       </c>
       <c r="Z29" t="n">
-        <v>12.36954245878112</v>
+        <v>138.5429053616989</v>
       </c>
       <c r="AA29" t="n">
-        <v>40.75910750129965</v>
+        <v>16.38837392210748</v>
       </c>
       <c r="AB29" t="n">
-        <v>101.9627413003881</v>
+        <v>22.70414268009923</v>
       </c>
       <c r="AC29" t="n">
-        <v>49.83354911610127</v>
+        <v>42.45117073943227</v>
       </c>
       <c r="AD29" t="n">
-        <v>13.66306430649703</v>
+        <v>13.03175252754125</v>
       </c>
       <c r="AE29" t="n">
-        <v>0</v>
+        <v>47.17364516896303</v>
       </c>
       <c r="AF29" t="n">
-        <v>79.56572124645471</v>
+        <v>8.834954367506358</v>
       </c>
       <c r="AG29" t="n">
-        <v>40.37103484519155</v>
+        <v>1.434150088795144</v>
       </c>
       <c r="AH29" t="n">
-        <v>59.18061615775551</v>
+        <v>97.03730110529169</v>
       </c>
       <c r="AI29" t="n">
-        <v>25.87779344530216</v>
+        <v>29.3672100391933</v>
       </c>
       <c r="AJ29" t="n">
-        <v>22.17544639136285</v>
+        <v>4.817317622282975</v>
       </c>
       <c r="AK29" t="n">
-        <v>10.84597147125994</v>
+        <v>35.53502950328328</v>
       </c>
       <c r="AL29" t="n">
-        <v>12.539837207722</v>
+        <v>12.23230812999295</v>
       </c>
       <c r="AM29" t="n">
-        <v>34.91503952503711</v>
+        <v>48.21097573594386</v>
       </c>
       <c r="AN29" t="n">
-        <v>21.79220731242638</v>
+        <v>17.10106014450261</v>
       </c>
       <c r="AO29" t="n">
-        <v>23.1851757993052</v>
+        <v>6.888220850233396</v>
       </c>
       <c r="AP29" t="n">
-        <v>23.68974673801085</v>
+        <v>10.55036806566404</v>
       </c>
       <c r="AQ29" t="n">
-        <v>23.60446162411114</v>
+        <v>3.567344509290799</v>
       </c>
       <c r="AR29" t="n">
-        <v>32.27935082306114</v>
+        <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>37.9269922591394</v>
+        <v>26.08088362812112</v>
       </c>
       <c r="AT29" t="n">
-        <v>15.70004098136254</v>
+        <v>10.32839752083855</v>
       </c>
       <c r="AU29" t="n">
-        <v>39.17025046117622</v>
+        <v>11.49259463729216</v>
       </c>
       <c r="AV29" t="n">
-        <v>0</v>
+        <v>30.42425862974596</v>
       </c>
       <c r="AW29" t="n">
-        <v>13.37963808647364</v>
+        <v>13.62721817359404</v>
       </c>
       <c r="AX29" t="n">
-        <v>23.84475047981834</v>
+        <v>30.55773390285819</v>
       </c>
     </row>
     <row r="30">
@@ -4949,148 +4949,148 @@
         <v>5</v>
       </c>
       <c r="C30" t="n">
-        <v>5.268084955557667</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>17.27674979222934</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>3.960335766850216</v>
+        <v>78.58103373351327</v>
       </c>
       <c r="F30" t="n">
-        <v>7.111878542490953</v>
+        <v>0.543014979460172</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>14.29214516798372</v>
       </c>
       <c r="H30" t="n">
-        <v>3.497100870076353</v>
+        <v>113.4485142685649</v>
       </c>
       <c r="I30" t="n">
-        <v>16.65932148055219</v>
+        <v>4.465160572537881</v>
       </c>
       <c r="J30" t="n">
-        <v>15.14116808307822</v>
+        <v>14.1207549440359</v>
       </c>
       <c r="K30" t="n">
-        <v>103.0110269140494</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>19.88674523786647</v>
+        <v>5.211654119424438</v>
       </c>
       <c r="M30" t="n">
-        <v>24.06552633977932</v>
+        <v>15.92416693212055</v>
       </c>
       <c r="N30" t="n">
-        <v>22.18143187483828</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>14.82641475376307</v>
+        <v>5.724395452894015</v>
       </c>
       <c r="P30" t="n">
-        <v>16.33391372354846</v>
+        <v>28.41230026410025</v>
       </c>
       <c r="Q30" t="n">
-        <v>83.40399168829937</v>
+        <v>20.53829571714464</v>
       </c>
       <c r="R30" t="n">
-        <v>20.05088648202457</v>
+        <v>12.53043530028838</v>
       </c>
       <c r="S30" t="n">
-        <v>16.99062236531626</v>
+        <v>29.87919670333025</v>
       </c>
       <c r="T30" t="n">
-        <v>4.403110225692831</v>
+        <v>21.82821567280738</v>
       </c>
       <c r="U30" t="n">
-        <v>11.82215068773375</v>
+        <v>1.044561856216486</v>
       </c>
       <c r="V30" t="n">
-        <v>19.68388070919078</v>
+        <v>13.60671678255223</v>
       </c>
       <c r="W30" t="n">
-        <v>11.66557122107898</v>
+        <v>12.75906784232043</v>
       </c>
       <c r="X30" t="n">
-        <v>25.53825984965047</v>
+        <v>30.74276203302385</v>
       </c>
       <c r="Y30" t="n">
-        <v>5.245293613541516</v>
+        <v>25.17271875923976</v>
       </c>
       <c r="Z30" t="n">
-        <v>11.65399665610415</v>
+        <v>34.18176361921331</v>
       </c>
       <c r="AA30" t="n">
-        <v>17.54187990313194</v>
+        <v>16.26609388515939</v>
       </c>
       <c r="AB30" t="n">
-        <v>23.01117392245233</v>
+        <v>85.72138187291704</v>
       </c>
       <c r="AC30" t="n">
-        <v>25.7211399845023</v>
+        <v>27.29475864605339</v>
       </c>
       <c r="AD30" t="n">
-        <v>32.94804404538103</v>
+        <v>13.23794885359016</v>
       </c>
       <c r="AE30" t="n">
-        <v>18.54446470327863</v>
+        <v>10.11865436038095</v>
       </c>
       <c r="AF30" t="n">
-        <v>5.093378055835172</v>
+        <v>22.67184491786811</v>
       </c>
       <c r="AG30" t="n">
-        <v>12.29100539639585</v>
+        <v>39.47011904220276</v>
       </c>
       <c r="AH30" t="n">
-        <v>3.23803196287395</v>
+        <v>2.603914597546966</v>
       </c>
       <c r="AI30" t="n">
-        <v>15.51983375071239</v>
+        <v>0.6562933760184775</v>
       </c>
       <c r="AJ30" t="n">
-        <v>16.19029864773508</v>
+        <v>9.311639648033639</v>
       </c>
       <c r="AK30" t="n">
-        <v>16.30227518978112</v>
+        <v>14.81197398522166</v>
       </c>
       <c r="AL30" t="n">
-        <v>6.355697777313676</v>
+        <v>22.51481596834246</v>
       </c>
       <c r="AM30" t="n">
-        <v>2.006091323830413</v>
+        <v>0.2463564350911911</v>
       </c>
       <c r="AN30" t="n">
-        <v>4.251379645244058</v>
+        <v>1.143410074178963</v>
       </c>
       <c r="AO30" t="n">
-        <v>2.122056834254129</v>
+        <v>0.5140046103602173</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.002772839569297</v>
+        <v>4.771397584619068</v>
       </c>
       <c r="AQ30" t="n">
-        <v>5.914607735393828</v>
+        <v>3.754986136252845</v>
       </c>
       <c r="AR30" t="n">
-        <v>4.686490252541597</v>
+        <v>6.949525003723354</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.625871487155548</v>
+        <v>4.367507646199837</v>
       </c>
       <c r="AT30" t="n">
-        <v>0</v>
+        <v>1.265775309249421</v>
       </c>
       <c r="AU30" t="n">
-        <v>1.283288443096554</v>
+        <v>0</v>
       </c>
       <c r="AV30" t="n">
-        <v>3.645024613553195</v>
+        <v>2.726488178758165</v>
       </c>
       <c r="AW30" t="n">
-        <v>3.614180563557587</v>
+        <v>3.592329420965561</v>
       </c>
       <c r="AX30" t="n">
-        <v>5.159243966551803</v>
+        <v>4.704996881032494</v>
       </c>
     </row>
     <row r="31">
@@ -5101,148 +5101,148 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>25.22473439093699</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>26.23103047819941</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>47.14088418170078</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>24.53370657600707</v>
       </c>
       <c r="H31" t="n">
-        <v>33.75119763647221</v>
+        <v>171.2613053563971</v>
       </c>
       <c r="I31" t="n">
-        <v>6.486541463655726</v>
+        <v>40.31718524042975</v>
       </c>
       <c r="J31" t="n">
-        <v>5.643849536337923</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>25.93321258591808</v>
+        <v>11.86177136283115</v>
       </c>
       <c r="M31" t="n">
-        <v>31.24534952538459</v>
+        <v>11.89961136504362</v>
       </c>
       <c r="N31" t="n">
-        <v>33.56226376830063</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>51.30944057818251</v>
+        <v>80.08239790034372</v>
       </c>
       <c r="P31" t="n">
-        <v>104.782429491727</v>
+        <v>19.10052770704954</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.5717165230684</v>
+        <v>12.45843497564557</v>
       </c>
       <c r="R31" t="n">
-        <v>26.27963398490117</v>
+        <v>17.41551224678886</v>
       </c>
       <c r="S31" t="n">
-        <v>19.3804577516539</v>
+        <v>66.30466840813834</v>
       </c>
       <c r="T31" t="n">
-        <v>53.43864724808982</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>26.59757340651073</v>
+        <v>22.15007935210301</v>
       </c>
       <c r="V31" t="n">
-        <v>28.19938593561458</v>
+        <v>32.61469110067801</v>
       </c>
       <c r="W31" t="n">
-        <v>6.02853669441168</v>
+        <v>21.08684178593661</v>
       </c>
       <c r="X31" t="n">
-        <v>35.96714857891519</v>
+        <v>51.33248698599945</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.72558147801688</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>13.87831851853124</v>
+        <v>35.87328449000373</v>
       </c>
       <c r="AA31" t="n">
-        <v>12.085884765159</v>
+        <v>16.41835635430444</v>
       </c>
       <c r="AB31" t="n">
-        <v>7.382638797077762</v>
+        <v>11.05983655883327</v>
       </c>
       <c r="AC31" t="n">
-        <v>1.821843425557558</v>
+        <v>38.14898895124881</v>
       </c>
       <c r="AD31" t="n">
-        <v>6.389098040963559</v>
+        <v>3.323953475554637</v>
       </c>
       <c r="AE31" t="n">
-        <v>5.584943203054822</v>
+        <v>17.52828667961592</v>
       </c>
       <c r="AF31" t="n">
-        <v>4.42230375438595</v>
+        <v>3.175341393769394</v>
       </c>
       <c r="AG31" t="n">
-        <v>0</v>
+        <v>4.905089529484459</v>
       </c>
       <c r="AH31" t="n">
-        <v>17.47766769774394</v>
+        <v>7.495569943276843</v>
       </c>
       <c r="AI31" t="n">
-        <v>49.08574969478384</v>
+        <v>0</v>
       </c>
       <c r="AJ31" t="n">
-        <v>10.73777586717949</v>
+        <v>23.33344007331892</v>
       </c>
       <c r="AK31" t="n">
-        <v>9.251241192477586</v>
+        <v>9.474464996949703</v>
       </c>
       <c r="AL31" t="n">
-        <v>3.199371335332243</v>
+        <v>8.171591359156306</v>
       </c>
       <c r="AM31" t="n">
-        <v>5.450821362176309</v>
+        <v>8.68268981623036</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.983007329297574</v>
+        <v>0</v>
       </c>
       <c r="AO31" t="n">
-        <v>24.05811119069178</v>
+        <v>64.86853595541785</v>
       </c>
       <c r="AP31" t="n">
-        <v>0.2235922827537407</v>
+        <v>2.103081256284938</v>
       </c>
       <c r="AQ31" t="n">
-        <v>10.5854675267288</v>
+        <v>6.656116011757366</v>
       </c>
       <c r="AR31" t="n">
-        <v>3.348792175376959</v>
+        <v>1.706064298107252</v>
       </c>
       <c r="AS31" t="n">
-        <v>5.253030065840858</v>
+        <v>7.421233942887516</v>
       </c>
       <c r="AT31" t="n">
-        <v>4.255440202489957</v>
+        <v>12.31767501187532</v>
       </c>
       <c r="AU31" t="n">
-        <v>11.26320416319998</v>
+        <v>3.543249016002941</v>
       </c>
       <c r="AV31" t="n">
-        <v>8.640361963089322</v>
+        <v>12.96343464768434</v>
       </c>
       <c r="AW31" t="n">
-        <v>10.05064191237806</v>
+        <v>0</v>
       </c>
       <c r="AX31" t="n">
-        <v>12.89243073181329</v>
+        <v>3.90893919461666</v>
       </c>
     </row>
   </sheetData>
